--- a/Processes/Finance/Budgeting/General Department Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/General Department Budget Template.xlsx
@@ -1,48 +1,405 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28565" windowHeight="16200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Costs" sheetId="1" r:id="rId1"/>
+    <sheet name="Investments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Employee trainings &amp; seminars</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Software Licenses</t>
+  </si>
+  <si>
+    <t>Travel expenses</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +407,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -61,10 +660,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1001,73 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Processes/Finance/Budgeting/General Department Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/General Department Budget Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eichhornd\Desktop\Projekte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD439AB9-5CD5-45C8-B18F-AB4C1D486AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13091D-B986-4EBC-BB9F-03FD62566C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -233,9 +232,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,7 +257,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -295,7 +294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -412,25 +411,25 @@
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,7 +495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1378944776"/>
@@ -527,6 +526,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Costs!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in TEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -555,7 +595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1378947728"/>
@@ -603,7 +643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -617,7 +657,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -654,7 +694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -771,25 +811,25 @@
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>4.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1378944776"/>
@@ -886,6 +926,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Investments!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in TEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -914,7 +995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1378947728"/>
@@ -962,7 +1043,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2458,22 +2539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L846"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="1.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="4" customWidth="1"/>
     <col min="4" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="1.54296875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="156.36328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="156.42578125" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.5" customHeight="1">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2577,25 +2656,25 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2606,25 +2685,25 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E7" s="15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="15">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G7" s="15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="15">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J7" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="16"/>
@@ -2644,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -2664,25 +2743,25 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="16"/>
@@ -2696,22 +2775,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="16"/>
@@ -2854,31 +2933,31 @@
       <c r="C22" s="6"/>
       <c r="D22" s="12">
         <f t="shared" ref="D22:I22" si="0">+SUM(D5:D21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.42</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" ref="J22" si="1">+SUM(J5:J21)</f>
-        <v>1</v>
+        <v>2.85</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="11"/>
@@ -4460,20 +4539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L846"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="1.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="4" customWidth="1"/>
     <col min="4" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="1.54296875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="156.36328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="156.42578125" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.5" customHeight="1">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4577,25 +4656,25 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F6" s="15">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I6" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -4638,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="15">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -4650,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -4812,32 +4891,32 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="12">
-        <f>+SUM(D5:D21)</f>
-        <v>1.5</v>
+        <f t="shared" ref="D22:I22" si="0">+SUM(D5:D21)</f>
+        <v>3</v>
       </c>
       <c r="E22" s="12">
-        <f>+SUM(E5:E21)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="F22" s="12">
-        <f>+SUM(F5:F21)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>4.6499999999999995</v>
       </c>
       <c r="G22" s="12">
-        <f>+SUM(G5:G21)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>2.9</v>
       </c>
       <c r="H22" s="12">
-        <f>+SUM(H5:H21)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="I22" s="12">
-        <f>+SUM(I5:I21)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="0">+SUM(J5:J21)</f>
-        <v>1.5</v>
+        <f t="shared" ref="J22" si="1">+SUM(J5:J21)</f>
+        <v>3.5</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="11"/>

--- a/Processes/Finance/Budgeting/General Department Budget Template.xlsx
+++ b/Processes/Finance/Budgeting/General Department Budget Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13091D-B986-4EBC-BB9F-03FD62566C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7FEC5-DA75-4A46-90CE-FF4CF4FAAA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Employee trainings &amp; seminars</t>
   </si>
@@ -352,9 +352,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Costs!$D$2:$J$3</c:f>
+              <c:f>Costs!$D$2:$L$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -375,6 +375,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -400,16 +406,22 @@
                   <c:pt idx="6">
                     <c:v>2026</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2028</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Costs!$D$22:$J$22</c:f>
+              <c:f>Costs!$D$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -429,6 +441,12 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -752,9 +770,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Investments!$D$2:$J$3</c:f>
+              <c:f>Investments!$D$2:$L$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>PY</c:v>
@@ -775,6 +793,12 @@
                     <c:v>B</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -800,16 +824,22 @@
                   <c:pt idx="6">
                     <c:v>2026</c:v>
                   </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2028</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Investments!$D$22:$J$22</c:f>
+              <c:f>Investments!$D$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -829,6 +859,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2176,7 +2212,7 @@
       <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -2217,7 +2253,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -2537,22 +2573,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L846"/>
+  <dimension ref="B2:N846"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" style="4" customWidth="1"/>
-    <col min="4" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="1.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="156.42578125" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="9"/>
+    <col min="4" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="1.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="156.42578125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1">
+    <row r="2" spans="2:14" ht="14.45" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2584,12 +2622,20 @@
         <f>+I2+1</f>
         <v>2026</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:L2" si="0">+J2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2614,14 +2660,20 @@
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14">
       <c r="C4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="M4" s="6"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -2647,10 +2699,16 @@
       <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
@@ -2676,10 +2734,16 @@
       <c r="J6" s="15">
         <v>0.15</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K6" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
@@ -2705,10 +2769,16 @@
       <c r="J7" s="15">
         <v>0.5</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
@@ -2734,10 +2804,16 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2763,10 +2839,16 @@
       <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -2792,10 +2874,16 @@
       <c r="J10" s="15">
         <v>0.2</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K10" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
@@ -2821,9 +2909,15 @@
       <c r="J11" s="15">
         <v>0</v>
       </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2832,9 +2926,11 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2843,9 +2939,11 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2854,9 +2952,11 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2865,9 +2965,11 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2876,9 +2978,11 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2887,9 +2991,11 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2898,9 +3004,11 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2909,9 +3017,11 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2920,1614 +3030,1624 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:14">
       <c r="C21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="12">
-        <f t="shared" ref="D22:I22" si="0">+SUM(D5:D21)</f>
+        <f t="shared" ref="D22:I22" si="1">+SUM(D5:D21)</f>
         <v>2</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.42</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="1">+SUM(J5:J21)</f>
+        <f t="shared" ref="J22:L22" si="2">+SUM(J5:J21)</f>
         <v>2.85</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="K22" s="12">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14">
       <c r="C23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="C25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="2:14">
       <c r="C26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:14">
       <c r="C27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:14">
       <c r="C28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:14">
       <c r="C29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:14">
       <c r="C30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:14">
       <c r="C31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:14">
       <c r="C32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="3:11">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="3:13">
       <c r="C33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="3:11">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="3:13">
       <c r="C34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="3:11">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="3:13">
       <c r="C35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="3:11">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="3:13">
       <c r="C36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="3:11">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="3:13">
       <c r="C37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="3:11">
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="3:13">
       <c r="C38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="3:11">
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="3:13">
       <c r="C39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="3:11">
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="3:13">
       <c r="C40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="3:11">
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="3:13">
       <c r="C41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="3:11">
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="3:13">
       <c r="C42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="3:11">
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="3:13">
       <c r="C43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="3:11">
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="3:13">
       <c r="C44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="3:11">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="3:13">
       <c r="C45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="3:11">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="3:13">
       <c r="C46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="3:11">
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="3:13">
       <c r="C47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="3:11">
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="3:13">
       <c r="C48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="3:11">
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="3:13">
       <c r="C49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="3:11">
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="3:13">
       <c r="C50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="3:11">
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="3:13">
       <c r="C51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="3:11">
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="3:13">
       <c r="C52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="3:11">
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="3:13">
       <c r="C53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="3:11">
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="3:11">
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="3:13">
       <c r="C55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="3:11">
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="3:13">
       <c r="C56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="3:11">
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="3:13">
       <c r="C57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="3:11">
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="3:13">
       <c r="C58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="3:11">
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="3:13">
       <c r="C59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="3:11">
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="3:13">
       <c r="C60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="3:11">
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="3:13">
       <c r="C61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="3:11">
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="3:13">
       <c r="C62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="3:11">
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="3:11">
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="3:13">
       <c r="C64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="3:11">
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="3:13">
       <c r="C65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="3:11">
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="3:13">
       <c r="C66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="3:11">
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="3:13">
       <c r="C67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="3:11">
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="3:13">
       <c r="C68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="3:11">
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="3:13">
       <c r="C69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="3:11">
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="3:13">
       <c r="C70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="3:11">
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="3:13">
       <c r="C71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="3:11">
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="3:13">
       <c r="C72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="3:11">
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="3:13">
       <c r="C73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="3:11">
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="3:13">
       <c r="C74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="3:11">
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="3:13">
       <c r="C75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="3:11">
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="3:13">
       <c r="C76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="3:11">
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="3:13">
       <c r="C77" s="6"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="3:13">
       <c r="C78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="3:11">
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="3:13">
       <c r="C79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="3:11">
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="3:13">
       <c r="C80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="3:11">
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="3:13">
       <c r="C81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="3:11">
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="3:13">
       <c r="C82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="3:11">
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="3:13">
       <c r="C83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="3:11">
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="3:13">
       <c r="C84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="3:11">
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="3:13">
       <c r="C85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="3:11">
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="3:13">
       <c r="C86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="3:11">
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="3:13">
       <c r="C87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="3:11">
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="3:13">
       <c r="C88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="3:11">
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="3:13">
       <c r="C89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="3:11">
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="3:13">
       <c r="C90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="3:11">
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="3:13">
       <c r="C91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="3:11">
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="3:13">
       <c r="C92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="3:11">
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="3:13">
       <c r="C93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="3:11">
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="3:13">
       <c r="C94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="3:11">
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="3:13">
       <c r="C95" s="6"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="3:11">
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="3:13">
       <c r="C96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="3:11">
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="3:13">
       <c r="C97" s="6"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="3:11">
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="3:13">
       <c r="C98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="3:11">
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="3:13">
       <c r="C99" s="6"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="3:11">
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="3:13">
       <c r="C100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="3:11">
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="3:13">
       <c r="C101" s="6"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="3:11">
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="3:13">
       <c r="C102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="3:11">
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="3:13">
       <c r="C103" s="6"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="3:11">
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="3:13">
       <c r="C104" s="6"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="3:11">
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="3:13">
       <c r="C105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="3:11">
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="3:13">
       <c r="C106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="3:11">
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="3:13">
       <c r="C107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="3:11">
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="3:13">
       <c r="C108" s="6"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="3:11">
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="3:13">
       <c r="C109" s="6"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="3:11">
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="3:13">
       <c r="C110" s="6"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="3:11">
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="3:13">
       <c r="C111" s="6"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="3:11">
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="3:13">
       <c r="C112" s="6"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="3:11">
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="3:13">
       <c r="C113" s="6"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="3:11">
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="3:13">
       <c r="C114" s="6"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="3:11">
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="3:13">
       <c r="C115" s="6"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="3:11">
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="3:13">
       <c r="C116" s="6"/>
-      <c r="K116" s="6"/>
-    </row>
-    <row r="117" spans="3:11">
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="3:13">
       <c r="C117" s="6"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="3:11">
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="3:13">
       <c r="C118" s="6"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="3:11">
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="3:13">
       <c r="C119" s="6"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="3:11">
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="3:13">
       <c r="C120" s="6"/>
-      <c r="K120" s="6"/>
-    </row>
-    <row r="121" spans="3:11">
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="3:13">
       <c r="C121" s="6"/>
-      <c r="K121" s="6"/>
-    </row>
-    <row r="122" spans="3:11">
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="3:13">
       <c r="C122" s="6"/>
-      <c r="K122" s="6"/>
-    </row>
-    <row r="123" spans="3:11">
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="3:13">
       <c r="C123" s="6"/>
-      <c r="K123" s="6"/>
-    </row>
-    <row r="124" spans="3:11">
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="3:13">
       <c r="C124" s="6"/>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" spans="3:11">
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="3:13">
       <c r="C125" s="6"/>
-      <c r="K125" s="6"/>
-    </row>
-    <row r="126" spans="3:11">
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="3:13">
       <c r="C126" s="6"/>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" spans="3:11">
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="3:13">
       <c r="C127" s="6"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="3:11">
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="3:13">
       <c r="C128" s="6"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" spans="3:11">
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="3:13">
       <c r="C129" s="6"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="3:11">
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="3:13">
       <c r="C130" s="6"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="3:11">
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="3:13">
       <c r="C131" s="6"/>
-      <c r="K131" s="6"/>
-    </row>
-    <row r="132" spans="3:11">
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="3:13">
       <c r="C132" s="6"/>
-      <c r="K132" s="6"/>
-    </row>
-    <row r="133" spans="3:11">
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="3:13">
       <c r="C133" s="6"/>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="3:11">
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="3:13">
       <c r="C134" s="6"/>
-      <c r="K134" s="6"/>
-    </row>
-    <row r="135" spans="3:11">
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="3:13">
       <c r="C135" s="6"/>
-      <c r="K135" s="6"/>
-    </row>
-    <row r="136" spans="3:11">
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="3:13">
       <c r="C136" s="6"/>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="3:11">
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="3:13">
       <c r="C137" s="6"/>
-      <c r="K137" s="6"/>
-    </row>
-    <row r="138" spans="3:11">
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="3:13">
       <c r="C138" s="6"/>
-      <c r="K138" s="6"/>
-    </row>
-    <row r="139" spans="3:11">
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="3:13">
       <c r="C139" s="6"/>
-      <c r="K139" s="6"/>
-    </row>
-    <row r="140" spans="3:11">
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="3:13">
       <c r="C140" s="6"/>
-      <c r="K140" s="6"/>
-    </row>
-    <row r="141" spans="3:11">
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="3:13">
       <c r="C141" s="6"/>
-      <c r="K141" s="6"/>
-    </row>
-    <row r="142" spans="3:11">
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="3:13">
       <c r="C142" s="6"/>
-      <c r="K142" s="6"/>
-    </row>
-    <row r="143" spans="3:11">
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="3:13">
       <c r="C143" s="6"/>
-      <c r="K143" s="6"/>
-    </row>
-    <row r="144" spans="3:11">
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="3:13">
       <c r="C144" s="6"/>
-      <c r="K144" s="6"/>
-    </row>
-    <row r="145" spans="3:11">
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="3:13">
       <c r="C145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="3:11">
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="3:13">
       <c r="C146" s="6"/>
-      <c r="K146" s="6"/>
-    </row>
-    <row r="147" spans="3:11">
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="3:13">
       <c r="C147" s="6"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" spans="3:11">
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="3:13">
       <c r="C148" s="6"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="149" spans="3:11">
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="3:13">
       <c r="C149" s="6"/>
-      <c r="K149" s="6"/>
-    </row>
-    <row r="150" spans="3:11">
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="3:13">
       <c r="C150" s="6"/>
-      <c r="K150" s="6"/>
-    </row>
-    <row r="151" spans="3:11">
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="3:13">
       <c r="C151" s="6"/>
-      <c r="K151" s="6"/>
-    </row>
-    <row r="152" spans="3:11">
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="3:13">
       <c r="C152" s="6"/>
-      <c r="K152" s="6"/>
-    </row>
-    <row r="153" spans="3:11">
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="3:13">
       <c r="C153" s="6"/>
-      <c r="K153" s="6"/>
-    </row>
-    <row r="154" spans="3:11">
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="3:13">
       <c r="C154" s="6"/>
-      <c r="K154" s="6"/>
-    </row>
-    <row r="155" spans="3:11">
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="3:13">
       <c r="C155" s="6"/>
-      <c r="K155" s="6"/>
-    </row>
-    <row r="156" spans="3:11">
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="3:13">
       <c r="C156" s="6"/>
-      <c r="K156" s="6"/>
-    </row>
-    <row r="157" spans="3:11">
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="3:13">
       <c r="C157" s="6"/>
-      <c r="K157" s="6"/>
-    </row>
-    <row r="158" spans="3:11">
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="3:13">
       <c r="C158" s="6"/>
-      <c r="K158" s="6"/>
-    </row>
-    <row r="159" spans="3:11">
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="3:13">
       <c r="C159" s="6"/>
-      <c r="K159" s="6"/>
-    </row>
-    <row r="160" spans="3:11">
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="3:13">
       <c r="C160" s="6"/>
-      <c r="K160" s="6"/>
-    </row>
-    <row r="161" spans="3:11">
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="3:13">
       <c r="C161" s="6"/>
-      <c r="K161" s="6"/>
-    </row>
-    <row r="162" spans="3:11">
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="3:13">
       <c r="C162" s="6"/>
-      <c r="K162" s="6"/>
-    </row>
-    <row r="163" spans="3:11">
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="3:13">
       <c r="C163" s="6"/>
-      <c r="K163" s="6"/>
-    </row>
-    <row r="164" spans="3:11">
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="3:13">
       <c r="C164" s="6"/>
-      <c r="K164" s="6"/>
-    </row>
-    <row r="165" spans="3:11">
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="3:13">
       <c r="C165" s="6"/>
-      <c r="K165" s="6"/>
-    </row>
-    <row r="166" spans="3:11">
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="3:13">
       <c r="C166" s="6"/>
-      <c r="K166" s="6"/>
-    </row>
-    <row r="167" spans="3:11">
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="3:13">
       <c r="C167" s="6"/>
-      <c r="K167" s="6"/>
-    </row>
-    <row r="168" spans="3:11">
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="3:13">
       <c r="C168" s="6"/>
-      <c r="K168" s="6"/>
-    </row>
-    <row r="169" spans="3:11">
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="3:13">
       <c r="C169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170" spans="3:11">
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="3:13">
       <c r="C170" s="6"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171" spans="3:11">
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="3:13">
       <c r="C171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172" spans="3:11">
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="3:13">
       <c r="C172" s="6"/>
-      <c r="K172" s="6"/>
-    </row>
-    <row r="173" spans="3:11">
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="3:13">
       <c r="C173" s="6"/>
-      <c r="K173" s="6"/>
-    </row>
-    <row r="174" spans="3:11">
+      <c r="M173" s="6"/>
+    </row>
+    <row r="174" spans="3:13">
       <c r="C174" s="6"/>
-      <c r="K174" s="6"/>
-    </row>
-    <row r="175" spans="3:11">
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="3:13">
       <c r="C175" s="6"/>
-      <c r="K175" s="6"/>
-    </row>
-    <row r="176" spans="3:11">
+      <c r="M175" s="6"/>
+    </row>
+    <row r="176" spans="3:13">
       <c r="C176" s="6"/>
-      <c r="K176" s="6"/>
-    </row>
-    <row r="177" spans="3:11">
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="3:13">
       <c r="C177" s="6"/>
-      <c r="K177" s="6"/>
-    </row>
-    <row r="178" spans="3:11">
+      <c r="M177" s="6"/>
+    </row>
+    <row r="178" spans="3:13">
       <c r="C178" s="6"/>
-      <c r="K178" s="6"/>
-    </row>
-    <row r="179" spans="3:11">
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="3:13">
       <c r="C179" s="6"/>
-      <c r="K179" s="6"/>
-    </row>
-    <row r="180" spans="3:11">
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="3:13">
       <c r="C180" s="6"/>
-      <c r="K180" s="6"/>
-    </row>
-    <row r="181" spans="3:11">
+      <c r="M180" s="6"/>
+    </row>
+    <row r="181" spans="3:13">
       <c r="C181" s="6"/>
-      <c r="K181" s="6"/>
-    </row>
-    <row r="182" spans="3:11">
+      <c r="M181" s="6"/>
+    </row>
+    <row r="182" spans="3:13">
       <c r="C182" s="6"/>
-      <c r="K182" s="6"/>
-    </row>
-    <row r="183" spans="3:11">
+      <c r="M182" s="6"/>
+    </row>
+    <row r="183" spans="3:13">
       <c r="C183" s="6"/>
-      <c r="K183" s="6"/>
-    </row>
-    <row r="184" spans="3:11">
+      <c r="M183" s="6"/>
+    </row>
+    <row r="184" spans="3:13">
       <c r="C184" s="6"/>
-      <c r="K184" s="6"/>
-    </row>
-    <row r="185" spans="3:11">
+      <c r="M184" s="6"/>
+    </row>
+    <row r="185" spans="3:13">
       <c r="C185" s="6"/>
-      <c r="K185" s="6"/>
-    </row>
-    <row r="186" spans="3:11">
+      <c r="M185" s="6"/>
+    </row>
+    <row r="186" spans="3:13">
       <c r="C186" s="7"/>
-      <c r="K186" s="7"/>
-    </row>
-    <row r="187" spans="3:11">
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" spans="3:13">
       <c r="C187" s="7"/>
-      <c r="K187" s="7"/>
-    </row>
-    <row r="188" spans="3:11">
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" spans="3:13">
       <c r="C188" s="7"/>
-      <c r="K188" s="7"/>
-    </row>
-    <row r="189" spans="3:11">
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" spans="3:13">
       <c r="C189" s="7"/>
-      <c r="K189" s="7"/>
-    </row>
-    <row r="190" spans="3:11">
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" spans="3:13">
       <c r="C190" s="7"/>
-      <c r="K190" s="7"/>
-    </row>
-    <row r="191" spans="3:11">
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" spans="3:13">
       <c r="C191" s="7"/>
-      <c r="K191" s="7"/>
-    </row>
-    <row r="192" spans="3:11">
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" spans="3:13">
       <c r="C192" s="7"/>
-      <c r="K192" s="7"/>
-    </row>
-    <row r="193" spans="3:11">
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" spans="3:13">
       <c r="C193" s="7"/>
-      <c r="K193" s="7"/>
-    </row>
-    <row r="195" spans="3:11">
+      <c r="M193" s="7"/>
+    </row>
+    <row r="195" spans="3:13">
       <c r="C195" s="6"/>
-      <c r="K195" s="6"/>
-    </row>
-    <row r="200" spans="3:11">
+      <c r="M195" s="6"/>
+    </row>
+    <row r="200" spans="3:13">
       <c r="C200" s="6"/>
-      <c r="K200" s="6"/>
-    </row>
-    <row r="201" spans="3:11">
+      <c r="M200" s="6"/>
+    </row>
+    <row r="201" spans="3:13">
       <c r="C201" s="6"/>
-      <c r="K201" s="6"/>
-    </row>
-    <row r="202" spans="3:11">
+      <c r="M201" s="6"/>
+    </row>
+    <row r="202" spans="3:13">
       <c r="C202" s="6"/>
-      <c r="K202" s="6"/>
-    </row>
-    <row r="203" spans="3:11">
+      <c r="M202" s="6"/>
+    </row>
+    <row r="203" spans="3:13">
       <c r="C203" s="6"/>
-      <c r="K203" s="6"/>
-    </row>
-    <row r="204" spans="3:11">
+      <c r="M203" s="6"/>
+    </row>
+    <row r="204" spans="3:13">
       <c r="C204" s="6"/>
-      <c r="K204" s="6"/>
-    </row>
-    <row r="205" spans="3:11">
+      <c r="M204" s="6"/>
+    </row>
+    <row r="205" spans="3:13">
       <c r="C205" s="6"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206" spans="3:11">
+      <c r="M205" s="6"/>
+    </row>
+    <row r="206" spans="3:13">
       <c r="C206" s="6"/>
-      <c r="K206" s="6"/>
-    </row>
-    <row r="207" spans="3:11">
+      <c r="M206" s="6"/>
+    </row>
+    <row r="207" spans="3:13">
       <c r="C207" s="6"/>
-      <c r="K207" s="6"/>
-    </row>
-    <row r="208" spans="3:11">
+      <c r="M207" s="6"/>
+    </row>
+    <row r="208" spans="3:13">
       <c r="C208" s="6"/>
-      <c r="K208" s="6"/>
-    </row>
-    <row r="209" spans="3:11">
+      <c r="M208" s="6"/>
+    </row>
+    <row r="209" spans="3:13">
       <c r="C209" s="6"/>
-      <c r="K209" s="6"/>
-    </row>
-    <row r="210" spans="3:11">
+      <c r="M209" s="6"/>
+    </row>
+    <row r="210" spans="3:13">
       <c r="C210" s="6"/>
-      <c r="K210" s="6"/>
-    </row>
-    <row r="211" spans="3:11">
+      <c r="M210" s="6"/>
+    </row>
+    <row r="211" spans="3:13">
       <c r="C211" s="6"/>
-      <c r="K211" s="6"/>
-    </row>
-    <row r="212" spans="3:11">
+      <c r="M211" s="6"/>
+    </row>
+    <row r="212" spans="3:13">
       <c r="C212" s="6"/>
-      <c r="K212" s="6"/>
-    </row>
-    <row r="213" spans="3:11">
+      <c r="M212" s="6"/>
+    </row>
+    <row r="213" spans="3:13">
       <c r="C213" s="6"/>
-      <c r="K213" s="6"/>
-    </row>
-    <row r="214" spans="3:11">
+      <c r="M213" s="6"/>
+    </row>
+    <row r="214" spans="3:13">
       <c r="C214" s="6"/>
-      <c r="K214" s="6"/>
-    </row>
-    <row r="215" spans="3:11">
+      <c r="M214" s="6"/>
+    </row>
+    <row r="215" spans="3:13">
       <c r="C215" s="6"/>
-      <c r="K215" s="6"/>
-    </row>
-    <row r="216" spans="3:11">
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="3:13">
       <c r="C216" s="6"/>
-      <c r="K216" s="6"/>
-    </row>
-    <row r="217" spans="3:11">
+      <c r="M216" s="6"/>
+    </row>
+    <row r="217" spans="3:13">
       <c r="C217" s="6"/>
-      <c r="K217" s="6"/>
-    </row>
-    <row r="218" spans="3:11">
+      <c r="M217" s="6"/>
+    </row>
+    <row r="218" spans="3:13">
       <c r="C218" s="6"/>
-      <c r="K218" s="6"/>
-    </row>
-    <row r="219" spans="3:11">
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="3:13">
       <c r="C219" s="6"/>
-      <c r="K219" s="6"/>
-    </row>
-    <row r="220" spans="3:11">
+      <c r="M219" s="6"/>
+    </row>
+    <row r="220" spans="3:13">
       <c r="C220" s="6"/>
-      <c r="K220" s="6"/>
-    </row>
-    <row r="221" spans="3:11">
+      <c r="M220" s="6"/>
+    </row>
+    <row r="221" spans="3:13">
       <c r="C221" s="6"/>
-      <c r="K221" s="6"/>
-    </row>
-    <row r="222" spans="3:11">
+      <c r="M221" s="6"/>
+    </row>
+    <row r="222" spans="3:13">
       <c r="C222" s="6"/>
-      <c r="K222" s="6"/>
-    </row>
-    <row r="223" spans="3:11">
+      <c r="M222" s="6"/>
+    </row>
+    <row r="223" spans="3:13">
       <c r="C223" s="6"/>
-      <c r="K223" s="6"/>
-    </row>
-    <row r="224" spans="3:11">
+      <c r="M223" s="6"/>
+    </row>
+    <row r="224" spans="3:13">
       <c r="C224" s="6"/>
-      <c r="K224" s="6"/>
-    </row>
-    <row r="225" spans="3:11">
+      <c r="M224" s="6"/>
+    </row>
+    <row r="225" spans="3:13">
       <c r="C225" s="6"/>
-      <c r="K225" s="6"/>
-    </row>
-    <row r="226" spans="3:11">
+      <c r="M225" s="6"/>
+    </row>
+    <row r="226" spans="3:13">
       <c r="C226" s="6"/>
-      <c r="K226" s="6"/>
-    </row>
-    <row r="227" spans="3:11">
+      <c r="M226" s="6"/>
+    </row>
+    <row r="227" spans="3:13">
       <c r="C227" s="6"/>
-      <c r="K227" s="6"/>
-    </row>
-    <row r="228" spans="3:11">
+      <c r="M227" s="6"/>
+    </row>
+    <row r="228" spans="3:13">
       <c r="C228" s="6"/>
-      <c r="K228" s="6"/>
-    </row>
-    <row r="229" spans="3:11">
+      <c r="M228" s="6"/>
+    </row>
+    <row r="229" spans="3:13">
       <c r="C229" s="6"/>
-      <c r="K229" s="6"/>
-    </row>
-    <row r="230" spans="3:11">
+      <c r="M229" s="6"/>
+    </row>
+    <row r="230" spans="3:13">
       <c r="C230" s="6"/>
-      <c r="K230" s="6"/>
-    </row>
-    <row r="231" spans="3:11">
+      <c r="M230" s="6"/>
+    </row>
+    <row r="231" spans="3:13">
       <c r="C231" s="6"/>
-      <c r="K231" s="6"/>
-    </row>
-    <row r="232" spans="3:11">
+      <c r="M231" s="6"/>
+    </row>
+    <row r="232" spans="3:13">
       <c r="C232" s="6"/>
-      <c r="K232" s="6"/>
-    </row>
-    <row r="233" spans="3:11">
+      <c r="M232" s="6"/>
+    </row>
+    <row r="233" spans="3:13">
       <c r="C233" s="6"/>
-      <c r="K233" s="6"/>
-    </row>
-    <row r="234" spans="3:11">
+      <c r="M233" s="6"/>
+    </row>
+    <row r="234" spans="3:13">
       <c r="C234" s="6"/>
-      <c r="K234" s="6"/>
-    </row>
-    <row r="235" spans="3:11">
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="3:13">
       <c r="C235" s="6"/>
-      <c r="K235" s="6"/>
-    </row>
-    <row r="236" spans="3:11">
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="3:13">
       <c r="C236" s="6"/>
-      <c r="K236" s="6"/>
-    </row>
-    <row r="237" spans="3:11">
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="3:13">
       <c r="C237" s="6"/>
-      <c r="K237" s="6"/>
-    </row>
-    <row r="238" spans="3:11">
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="3:13">
       <c r="C238" s="6"/>
-      <c r="K238" s="6"/>
-    </row>
-    <row r="239" spans="3:11">
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="3:13">
       <c r="C239" s="6"/>
-      <c r="K239" s="6"/>
-    </row>
-    <row r="240" spans="3:11">
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="3:13">
       <c r="C240" s="6"/>
-      <c r="K240" s="6"/>
-    </row>
-    <row r="241" spans="3:11">
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="3:13">
       <c r="C241" s="6"/>
-      <c r="K241" s="6"/>
-    </row>
-    <row r="242" spans="3:11">
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="3:13">
       <c r="C242" s="6"/>
-      <c r="K242" s="6"/>
-    </row>
-    <row r="243" spans="3:11">
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="3:13">
       <c r="C243" s="6"/>
-      <c r="K243" s="6"/>
-    </row>
-    <row r="244" spans="3:11">
+      <c r="M243" s="6"/>
+    </row>
+    <row r="244" spans="3:13">
       <c r="C244" s="6"/>
-      <c r="K244" s="6"/>
-    </row>
-    <row r="245" spans="3:11">
+      <c r="M244" s="6"/>
+    </row>
+    <row r="245" spans="3:13">
       <c r="C245" s="6"/>
-      <c r="K245" s="6"/>
-    </row>
-    <row r="246" spans="3:11">
+      <c r="M245" s="6"/>
+    </row>
+    <row r="246" spans="3:13">
       <c r="C246" s="6"/>
-      <c r="K246" s="6"/>
-    </row>
-    <row r="247" spans="3:11">
+      <c r="M246" s="6"/>
+    </row>
+    <row r="247" spans="3:13">
       <c r="C247" s="6"/>
-      <c r="K247" s="6"/>
-    </row>
-    <row r="248" spans="3:11">
+      <c r="M247" s="6"/>
+    </row>
+    <row r="248" spans="3:13">
       <c r="C248" s="6"/>
-      <c r="K248" s="6"/>
-    </row>
-    <row r="249" spans="3:11">
+      <c r="M248" s="6"/>
+    </row>
+    <row r="249" spans="3:13">
       <c r="C249" s="6"/>
-      <c r="K249" s="6"/>
-    </row>
-    <row r="250" spans="3:11">
+      <c r="M249" s="6"/>
+    </row>
+    <row r="250" spans="3:13">
       <c r="C250" s="6"/>
-      <c r="K250" s="6"/>
-    </row>
-    <row r="251" spans="3:11">
+      <c r="M250" s="6"/>
+    </row>
+    <row r="251" spans="3:13">
       <c r="C251" s="6"/>
-      <c r="K251" s="6"/>
-    </row>
-    <row r="252" spans="3:11">
+      <c r="M251" s="6"/>
+    </row>
+    <row r="252" spans="3:13">
       <c r="C252" s="6"/>
-      <c r="K252" s="6"/>
-    </row>
-    <row r="253" spans="3:11">
+      <c r="M252" s="6"/>
+    </row>
+    <row r="253" spans="3:13">
       <c r="C253" s="6"/>
-      <c r="K253" s="6"/>
-    </row>
-    <row r="254" spans="3:11">
+      <c r="M253" s="6"/>
+    </row>
+    <row r="254" spans="3:13">
       <c r="C254" s="6"/>
-      <c r="K254" s="6"/>
-    </row>
-    <row r="255" spans="3:11">
+      <c r="M254" s="6"/>
+    </row>
+    <row r="255" spans="3:13">
       <c r="C255" s="6"/>
-      <c r="K255" s="6"/>
-    </row>
-    <row r="256" spans="3:11">
+      <c r="M255" s="6"/>
+    </row>
+    <row r="256" spans="3:13">
       <c r="C256" s="6"/>
-      <c r="K256" s="6"/>
-    </row>
-    <row r="257" spans="3:11">
+      <c r="M256" s="6"/>
+    </row>
+    <row r="257" spans="3:13">
       <c r="C257" s="6"/>
-      <c r="K257" s="6"/>
-    </row>
-    <row r="258" spans="3:11">
+      <c r="M257" s="6"/>
+    </row>
+    <row r="258" spans="3:13">
       <c r="C258" s="6"/>
-      <c r="K258" s="6"/>
-    </row>
-    <row r="259" spans="3:11">
+      <c r="M258" s="6"/>
+    </row>
+    <row r="259" spans="3:13">
       <c r="C259" s="6"/>
-      <c r="K259" s="6"/>
-    </row>
-    <row r="260" spans="3:11">
+      <c r="M259" s="6"/>
+    </row>
+    <row r="260" spans="3:13">
       <c r="C260" s="6"/>
-      <c r="K260" s="6"/>
-    </row>
-    <row r="261" spans="3:11">
+      <c r="M260" s="6"/>
+    </row>
+    <row r="261" spans="3:13">
       <c r="C261" s="6"/>
-      <c r="K261" s="6"/>
-    </row>
-    <row r="262" spans="3:11">
+      <c r="M261" s="6"/>
+    </row>
+    <row r="262" spans="3:13">
       <c r="C262" s="6"/>
-      <c r="K262" s="6"/>
-    </row>
-    <row r="263" spans="3:11">
+      <c r="M262" s="6"/>
+    </row>
+    <row r="263" spans="3:13">
       <c r="C263" s="6"/>
-      <c r="K263" s="6"/>
-    </row>
-    <row r="264" spans="3:11">
+      <c r="M263" s="6"/>
+    </row>
+    <row r="264" spans="3:13">
       <c r="C264" s="6"/>
-      <c r="K264" s="6"/>
-    </row>
-    <row r="265" spans="3:11">
+      <c r="M264" s="6"/>
+    </row>
+    <row r="265" spans="3:13">
       <c r="C265" s="6"/>
-      <c r="K265" s="6"/>
-    </row>
-    <row r="266" spans="3:11">
+      <c r="M265" s="6"/>
+    </row>
+    <row r="266" spans="3:13">
       <c r="C266" s="6"/>
-      <c r="K266" s="6"/>
-    </row>
-    <row r="267" spans="3:11">
+      <c r="M266" s="6"/>
+    </row>
+    <row r="267" spans="3:13">
       <c r="C267" s="6"/>
-      <c r="K267" s="6"/>
-    </row>
-    <row r="268" spans="3:11">
+      <c r="M267" s="6"/>
+    </row>
+    <row r="268" spans="3:13">
       <c r="C268" s="6"/>
-      <c r="K268" s="6"/>
-    </row>
-    <row r="269" spans="3:11">
+      <c r="M268" s="6"/>
+    </row>
+    <row r="269" spans="3:13">
       <c r="C269" s="6"/>
-      <c r="K269" s="6"/>
-    </row>
-    <row r="270" spans="3:11">
+      <c r="M269" s="6"/>
+    </row>
+    <row r="270" spans="3:13">
       <c r="C270" s="6"/>
-      <c r="K270" s="6"/>
-    </row>
-    <row r="271" spans="3:11">
+      <c r="M270" s="6"/>
+    </row>
+    <row r="271" spans="3:13">
       <c r="C271" s="6"/>
-      <c r="K271" s="6"/>
-    </row>
-    <row r="272" spans="3:11">
+      <c r="M271" s="6"/>
+    </row>
+    <row r="272" spans="3:13">
       <c r="C272" s="6"/>
-      <c r="K272" s="6"/>
-    </row>
-    <row r="273" spans="3:11">
+      <c r="M272" s="6"/>
+    </row>
+    <row r="273" spans="3:13">
       <c r="C273" s="6"/>
-      <c r="K273" s="6"/>
-    </row>
-    <row r="274" spans="3:11">
+      <c r="M273" s="6"/>
+    </row>
+    <row r="274" spans="3:13">
       <c r="C274" s="6"/>
-      <c r="K274" s="6"/>
-    </row>
-    <row r="275" spans="3:11">
+      <c r="M274" s="6"/>
+    </row>
+    <row r="275" spans="3:13">
       <c r="C275" s="6"/>
-      <c r="K275" s="6"/>
-    </row>
-    <row r="276" spans="3:11">
+      <c r="M275" s="6"/>
+    </row>
+    <row r="276" spans="3:13">
       <c r="C276" s="6"/>
-      <c r="K276" s="6"/>
-    </row>
-    <row r="277" spans="3:11">
+      <c r="M276" s="6"/>
+    </row>
+    <row r="277" spans="3:13">
       <c r="C277" s="6"/>
-      <c r="K277" s="6"/>
-    </row>
-    <row r="278" spans="3:11">
+      <c r="M277" s="6"/>
+    </row>
+    <row r="278" spans="3:13">
       <c r="C278" s="6"/>
-      <c r="K278" s="6"/>
-    </row>
-    <row r="279" spans="3:11">
+      <c r="M278" s="6"/>
+    </row>
+    <row r="279" spans="3:13">
       <c r="C279" s="6"/>
-      <c r="K279" s="6"/>
-    </row>
-    <row r="280" spans="3:11">
+      <c r="M279" s="6"/>
+    </row>
+    <row r="280" spans="3:13">
       <c r="C280" s="6"/>
-      <c r="K280" s="6"/>
-    </row>
-    <row r="281" spans="3:11">
+      <c r="M280" s="6"/>
+    </row>
+    <row r="281" spans="3:13">
       <c r="C281" s="6"/>
-      <c r="K281" s="6"/>
-    </row>
-    <row r="282" spans="3:11">
+      <c r="M281" s="6"/>
+    </row>
+    <row r="282" spans="3:13">
       <c r="C282" s="6"/>
-      <c r="K282" s="6"/>
-    </row>
-    <row r="283" spans="3:11">
+      <c r="M282" s="6"/>
+    </row>
+    <row r="283" spans="3:13">
       <c r="C283" s="6"/>
-      <c r="K283" s="6"/>
-    </row>
-    <row r="284" spans="3:11">
+      <c r="M283" s="6"/>
+    </row>
+    <row r="284" spans="3:13">
       <c r="C284" s="6"/>
-      <c r="K284" s="6"/>
-    </row>
-    <row r="285" spans="3:11">
+      <c r="M284" s="6"/>
+    </row>
+    <row r="285" spans="3:13">
       <c r="C285" s="6"/>
-      <c r="K285" s="6"/>
-    </row>
-    <row r="286" spans="3:11">
+      <c r="M285" s="6"/>
+    </row>
+    <row r="286" spans="3:13">
       <c r="C286" s="6"/>
-      <c r="K286" s="6"/>
-    </row>
-    <row r="287" spans="3:11">
+      <c r="M286" s="6"/>
+    </row>
+    <row r="287" spans="3:13">
       <c r="C287" s="6"/>
-      <c r="K287" s="6"/>
-    </row>
-    <row r="288" spans="3:11">
+      <c r="M287" s="6"/>
+    </row>
+    <row r="288" spans="3:13">
       <c r="C288" s="6"/>
-      <c r="K288" s="6"/>
-    </row>
-    <row r="289" spans="3:11">
+      <c r="M288" s="6"/>
+    </row>
+    <row r="289" spans="3:13">
       <c r="C289" s="6"/>
-      <c r="K289" s="6"/>
-    </row>
-    <row r="290" spans="3:11">
+      <c r="M289" s="6"/>
+    </row>
+    <row r="290" spans="3:13">
       <c r="C290" s="6"/>
-      <c r="K290" s="6"/>
-    </row>
-    <row r="292" spans="3:11">
+      <c r="M290" s="6"/>
+    </row>
+    <row r="292" spans="3:13">
       <c r="C292" s="6"/>
-      <c r="K292" s="6"/>
-    </row>
-    <row r="293" spans="3:11">
+      <c r="M292" s="6"/>
+    </row>
+    <row r="293" spans="3:13">
       <c r="C293" s="6"/>
-      <c r="K293" s="6"/>
-    </row>
-    <row r="294" spans="3:11">
+      <c r="M293" s="6"/>
+    </row>
+    <row r="294" spans="3:13">
       <c r="C294" s="6"/>
-      <c r="K294" s="6"/>
-    </row>
-    <row r="295" spans="3:11">
+      <c r="M294" s="6"/>
+    </row>
+    <row r="295" spans="3:13">
       <c r="C295" s="6"/>
-      <c r="K295" s="6"/>
-    </row>
-    <row r="296" spans="3:11">
+      <c r="M295" s="6"/>
+    </row>
+    <row r="296" spans="3:13">
       <c r="C296" s="6"/>
-      <c r="K296" s="6"/>
-    </row>
-    <row r="297" spans="3:11">
+      <c r="M296" s="6"/>
+    </row>
+    <row r="297" spans="3:13">
       <c r="C297" s="6"/>
-      <c r="K297" s="6"/>
-    </row>
-    <row r="298" spans="3:11">
+      <c r="M297" s="6"/>
+    </row>
+    <row r="298" spans="3:13">
       <c r="C298" s="6"/>
-      <c r="K298" s="6"/>
-    </row>
-    <row r="299" spans="3:11">
+      <c r="M298" s="6"/>
+    </row>
+    <row r="299" spans="3:13">
       <c r="C299" s="6"/>
-      <c r="K299" s="6"/>
-    </row>
-    <row r="300" spans="3:11">
+      <c r="M299" s="6"/>
+    </row>
+    <row r="300" spans="3:13">
       <c r="C300" s="6"/>
-      <c r="K300" s="6"/>
-    </row>
-    <row r="301" spans="3:11">
+      <c r="M300" s="6"/>
+    </row>
+    <row r="301" spans="3:13">
       <c r="C301" s="6"/>
-      <c r="K301" s="6"/>
-    </row>
-    <row r="302" spans="3:11">
+      <c r="M301" s="6"/>
+    </row>
+    <row r="302" spans="3:13">
       <c r="C302" s="6"/>
-      <c r="K302" s="6"/>
-    </row>
-    <row r="303" spans="3:11">
+      <c r="M302" s="6"/>
+    </row>
+    <row r="303" spans="3:13">
       <c r="C303" s="6"/>
-      <c r="K303" s="6"/>
-    </row>
-    <row r="304" spans="3:11">
+      <c r="M303" s="6"/>
+    </row>
+    <row r="304" spans="3:13">
       <c r="C304" s="6"/>
-      <c r="K304" s="6"/>
-    </row>
-    <row r="305" spans="3:11">
+      <c r="M304" s="6"/>
+    </row>
+    <row r="305" spans="3:13">
       <c r="C305" s="6"/>
-      <c r="K305" s="6"/>
-    </row>
-    <row r="306" spans="3:11">
+      <c r="M305" s="6"/>
+    </row>
+    <row r="306" spans="3:13">
       <c r="C306" s="6"/>
-      <c r="K306" s="6"/>
-    </row>
-    <row r="307" spans="3:11">
+      <c r="M306" s="6"/>
+    </row>
+    <row r="307" spans="3:13">
       <c r="C307" s="6"/>
-      <c r="K307" s="6"/>
-    </row>
-    <row r="308" spans="3:11">
+      <c r="M307" s="6"/>
+    </row>
+    <row r="308" spans="3:13">
       <c r="C308" s="6"/>
-      <c r="K308" s="6"/>
-    </row>
-    <row r="309" spans="3:11">
+      <c r="M308" s="6"/>
+    </row>
+    <row r="309" spans="3:13">
       <c r="C309" s="6"/>
-      <c r="K309" s="6"/>
-    </row>
-    <row r="310" spans="3:11">
+      <c r="M309" s="6"/>
+    </row>
+    <row r="310" spans="3:13">
       <c r="C310" s="6"/>
-      <c r="K310" s="6"/>
-    </row>
-    <row r="311" spans="3:11">
+      <c r="M310" s="6"/>
+    </row>
+    <row r="311" spans="3:13">
       <c r="C311" s="6"/>
-      <c r="K311" s="6"/>
-    </row>
-    <row r="312" spans="3:11">
+      <c r="M311" s="6"/>
+    </row>
+    <row r="312" spans="3:13">
       <c r="C312" s="6"/>
-      <c r="K312" s="6"/>
-    </row>
-    <row r="313" spans="3:11">
+      <c r="M312" s="6"/>
+    </row>
+    <row r="313" spans="3:13">
       <c r="C313" s="6"/>
-      <c r="K313" s="6"/>
-    </row>
-    <row r="314" spans="3:11">
+      <c r="M313" s="6"/>
+    </row>
+    <row r="314" spans="3:13">
       <c r="C314" s="6"/>
-      <c r="K314" s="6"/>
-    </row>
-    <row r="315" spans="3:11">
+      <c r="M314" s="6"/>
+    </row>
+    <row r="315" spans="3:13">
       <c r="C315" s="6"/>
-      <c r="K315" s="6"/>
-    </row>
-    <row r="316" spans="3:11">
+      <c r="M315" s="6"/>
+    </row>
+    <row r="316" spans="3:13">
       <c r="C316" s="6"/>
-      <c r="K316" s="6"/>
-    </row>
-    <row r="317" spans="3:11">
+      <c r="M316" s="6"/>
+    </row>
+    <row r="317" spans="3:13">
       <c r="C317" s="6"/>
-      <c r="K317" s="6"/>
-    </row>
-    <row r="318" spans="3:11">
+      <c r="M317" s="6"/>
+    </row>
+    <row r="318" spans="3:13">
       <c r="C318" s="6"/>
-      <c r="K318" s="6"/>
-    </row>
-    <row r="319" spans="3:11">
+      <c r="M318" s="6"/>
+    </row>
+    <row r="319" spans="3:13">
       <c r="C319" s="6"/>
-      <c r="K319" s="6"/>
-    </row>
-    <row r="320" spans="3:11">
+      <c r="M319" s="6"/>
+    </row>
+    <row r="320" spans="3:13">
       <c r="C320" s="6"/>
-      <c r="K320" s="6"/>
-    </row>
-    <row r="321" spans="3:11">
+      <c r="M320" s="6"/>
+    </row>
+    <row r="321" spans="3:13">
       <c r="C321" s="6"/>
-      <c r="K321" s="6"/>
-    </row>
-    <row r="322" spans="3:11">
+      <c r="M321" s="6"/>
+    </row>
+    <row r="322" spans="3:13">
       <c r="C322" s="6"/>
-      <c r="K322" s="6"/>
-    </row>
-    <row r="323" spans="3:11">
+      <c r="M322" s="6"/>
+    </row>
+    <row r="323" spans="3:13">
       <c r="C323" s="6"/>
-      <c r="K323" s="6"/>
-    </row>
-    <row r="324" spans="3:11">
+      <c r="M323" s="6"/>
+    </row>
+    <row r="324" spans="3:13">
       <c r="C324" s="6"/>
-      <c r="K324" s="6"/>
-    </row>
-    <row r="325" spans="3:11">
+      <c r="M324" s="6"/>
+    </row>
+    <row r="325" spans="3:13">
       <c r="C325" s="6"/>
-      <c r="K325" s="6"/>
-    </row>
-    <row r="326" spans="3:11">
+      <c r="M325" s="6"/>
+    </row>
+    <row r="326" spans="3:13">
       <c r="C326" s="6"/>
-      <c r="K326" s="6"/>
-    </row>
-    <row r="327" spans="3:11">
+      <c r="M326" s="6"/>
+    </row>
+    <row r="327" spans="3:13">
       <c r="C327" s="6"/>
-      <c r="K327" s="6"/>
-    </row>
-    <row r="328" spans="3:11">
+      <c r="M327" s="6"/>
+    </row>
+    <row r="328" spans="3:13">
       <c r="C328" s="6"/>
-      <c r="K328" s="6"/>
-    </row>
-    <row r="329" spans="3:11">
+      <c r="M328" s="6"/>
+    </row>
+    <row r="329" spans="3:13">
       <c r="C329" s="6"/>
-      <c r="K329" s="6"/>
-    </row>
-    <row r="330" spans="3:11">
+      <c r="M329" s="6"/>
+    </row>
+    <row r="330" spans="3:13">
       <c r="C330" s="6"/>
-      <c r="K330" s="6"/>
-    </row>
-    <row r="331" spans="3:11">
+      <c r="M330" s="6"/>
+    </row>
+    <row r="331" spans="3:13">
       <c r="C331" s="6"/>
-      <c r="K331" s="6"/>
-    </row>
-    <row r="332" spans="3:11">
+      <c r="M331" s="6"/>
+    </row>
+    <row r="332" spans="3:13">
       <c r="C332" s="6"/>
-      <c r="K332" s="6"/>
-    </row>
-    <row r="333" spans="3:11">
+      <c r="M332" s="6"/>
+    </row>
+    <row r="333" spans="3:13">
       <c r="C333" s="6"/>
-      <c r="K333" s="6"/>
-    </row>
-    <row r="334" spans="3:11">
+      <c r="M333" s="6"/>
+    </row>
+    <row r="334" spans="3:13">
       <c r="C334" s="6"/>
-      <c r="K334" s="6"/>
-    </row>
-    <row r="335" spans="3:11">
+      <c r="M334" s="6"/>
+    </row>
+    <row r="335" spans="3:13">
       <c r="C335" s="6"/>
-      <c r="K335" s="6"/>
-    </row>
-    <row r="336" spans="3:11">
+      <c r="M335" s="6"/>
+    </row>
+    <row r="336" spans="3:13">
       <c r="C336" s="6"/>
-      <c r="K336" s="6"/>
-    </row>
-    <row r="337" spans="3:11">
+      <c r="M336" s="6"/>
+    </row>
+    <row r="337" spans="3:13">
       <c r="C337" s="6"/>
-      <c r="K337" s="6"/>
-    </row>
-    <row r="338" spans="3:11">
+      <c r="M337" s="6"/>
+    </row>
+    <row r="338" spans="3:13">
       <c r="C338" s="6"/>
-      <c r="K338" s="6"/>
-    </row>
-    <row r="339" spans="3:11">
+      <c r="M338" s="6"/>
+    </row>
+    <row r="339" spans="3:13">
       <c r="C339" s="6"/>
-      <c r="K339" s="6"/>
-    </row>
-    <row r="340" spans="3:11">
+      <c r="M339" s="6"/>
+    </row>
+    <row r="340" spans="3:13">
       <c r="C340" s="6"/>
-      <c r="K340" s="6"/>
-    </row>
-    <row r="341" spans="3:11">
+      <c r="M340" s="6"/>
+    </row>
+    <row r="341" spans="3:13">
       <c r="C341" s="6"/>
-      <c r="K341" s="6"/>
-    </row>
-    <row r="342" spans="3:11">
+      <c r="M341" s="6"/>
+    </row>
+    <row r="342" spans="3:13">
       <c r="C342" s="6"/>
-      <c r="K342" s="6"/>
-    </row>
-    <row r="343" spans="3:11">
+      <c r="M342" s="6"/>
+    </row>
+    <row r="343" spans="3:13">
       <c r="C343" s="6"/>
-      <c r="K343" s="6"/>
-    </row>
-    <row r="344" spans="3:11">
+      <c r="M343" s="6"/>
+    </row>
+    <row r="344" spans="3:13">
       <c r="C344" s="6"/>
-      <c r="K344" s="6"/>
-    </row>
-    <row r="345" spans="3:11">
+      <c r="M344" s="6"/>
+    </row>
+    <row r="345" spans="3:13">
       <c r="C345" s="6"/>
-      <c r="K345" s="6"/>
-    </row>
-    <row r="346" spans="3:11">
+      <c r="M345" s="6"/>
+    </row>
+    <row r="346" spans="3:13">
       <c r="C346" s="6"/>
-      <c r="K346" s="6"/>
-    </row>
-    <row r="347" spans="3:11">
+      <c r="M346" s="6"/>
+    </row>
+    <row r="347" spans="3:13">
       <c r="C347" s="6"/>
-      <c r="K347" s="6"/>
-    </row>
-    <row r="348" spans="3:11">
+      <c r="M347" s="6"/>
+    </row>
+    <row r="348" spans="3:13">
       <c r="C348" s="6"/>
-      <c r="K348" s="6"/>
-    </row>
-    <row r="349" spans="3:11">
+      <c r="M348" s="6"/>
+    </row>
+    <row r="349" spans="3:13">
       <c r="C349" s="6"/>
-      <c r="K349" s="6"/>
-    </row>
-    <row r="350" spans="3:11">
+      <c r="M349" s="6"/>
+    </row>
+    <row r="350" spans="3:13">
       <c r="C350" s="6"/>
-      <c r="K350" s="6"/>
-    </row>
-    <row r="351" spans="3:11">
+      <c r="M350" s="6"/>
+    </row>
+    <row r="351" spans="3:13">
       <c r="C351" s="6"/>
-      <c r="K351" s="6"/>
-    </row>
-    <row r="352" spans="3:11">
+      <c r="M351" s="6"/>
+    </row>
+    <row r="352" spans="3:13">
       <c r="C352" s="6"/>
-      <c r="K352" s="6"/>
-    </row>
-    <row r="353" spans="3:11">
+      <c r="M352" s="6"/>
+    </row>
+    <row r="353" spans="3:13">
       <c r="C353" s="6"/>
-      <c r="K353" s="6"/>
-    </row>
-    <row r="354" spans="3:11">
+      <c r="M353" s="6"/>
+    </row>
+    <row r="354" spans="3:13">
       <c r="C354" s="6"/>
-      <c r="K354" s="6"/>
-    </row>
-    <row r="355" spans="3:11">
+      <c r="M354" s="6"/>
+    </row>
+    <row r="355" spans="3:13">
       <c r="C355" s="6"/>
-      <c r="K355" s="6"/>
-    </row>
-    <row r="356" spans="3:11">
+      <c r="M355" s="6"/>
+    </row>
+    <row r="356" spans="3:13">
       <c r="C356" s="6"/>
-      <c r="K356" s="6"/>
-    </row>
-    <row r="357" spans="3:11">
+      <c r="M356" s="6"/>
+    </row>
+    <row r="357" spans="3:13">
       <c r="C357" s="6"/>
-      <c r="K357" s="6"/>
-    </row>
-    <row r="358" spans="3:11">
+      <c r="M357" s="6"/>
+    </row>
+    <row r="358" spans="3:13">
       <c r="C358" s="6"/>
-      <c r="K358" s="6"/>
-    </row>
-    <row r="359" spans="3:11">
+      <c r="M358" s="6"/>
+    </row>
+    <row r="359" spans="3:13">
       <c r="C359" s="6"/>
-      <c r="K359" s="6"/>
-    </row>
-    <row r="360" spans="3:11">
+      <c r="M359" s="6"/>
+    </row>
+    <row r="360" spans="3:13">
       <c r="C360" s="6"/>
-      <c r="K360" s="6"/>
-    </row>
-    <row r="361" spans="3:11">
+      <c r="M360" s="6"/>
+    </row>
+    <row r="361" spans="3:13">
       <c r="C361" s="6"/>
-      <c r="K361" s="6"/>
-    </row>
-    <row r="362" spans="3:11">
+      <c r="M361" s="6"/>
+    </row>
+    <row r="362" spans="3:13">
       <c r="C362" s="6"/>
-      <c r="K362" s="6"/>
-    </row>
-    <row r="363" spans="3:11">
+      <c r="M362" s="6"/>
+    </row>
+    <row r="363" spans="3:13">
       <c r="C363" s="6"/>
-      <c r="K363" s="6"/>
-    </row>
-    <row r="364" spans="3:11">
+      <c r="M363" s="6"/>
+    </row>
+    <row r="364" spans="3:13">
       <c r="C364" s="6"/>
-      <c r="K364" s="6"/>
-    </row>
-    <row r="365" spans="3:11">
+      <c r="M364" s="6"/>
+    </row>
+    <row r="365" spans="3:13">
       <c r="C365" s="6"/>
-      <c r="K365" s="6"/>
-    </row>
-    <row r="366" spans="3:11">
+      <c r="M365" s="6"/>
+    </row>
+    <row r="366" spans="3:13">
       <c r="C366" s="6"/>
-      <c r="K366" s="6"/>
-    </row>
-    <row r="367" spans="3:11">
+      <c r="M366" s="6"/>
+    </row>
+    <row r="367" spans="3:13">
       <c r="C367" s="6"/>
-      <c r="K367" s="6"/>
-    </row>
-    <row r="368" spans="3:11">
+      <c r="M367" s="6"/>
+    </row>
+    <row r="368" spans="3:13">
       <c r="C368" s="6"/>
-      <c r="K368" s="6"/>
-    </row>
-    <row r="369" spans="3:11">
+      <c r="M368" s="6"/>
+    </row>
+    <row r="369" spans="3:13">
       <c r="C369" s="6"/>
-      <c r="K369" s="6"/>
-    </row>
-    <row r="370" spans="3:11">
+      <c r="M369" s="6"/>
+    </row>
+    <row r="370" spans="3:13">
       <c r="C370" s="6"/>
-      <c r="K370" s="6"/>
-    </row>
-    <row r="371" spans="3:11">
+      <c r="M370" s="6"/>
+    </row>
+    <row r="371" spans="3:13">
       <c r="C371" s="6"/>
-      <c r="K371" s="6"/>
-    </row>
-    <row r="372" spans="3:11">
+      <c r="M371" s="6"/>
+    </row>
+    <row r="372" spans="3:13">
       <c r="C372" s="6"/>
-      <c r="K372" s="6"/>
-    </row>
-    <row r="373" spans="3:11">
+      <c r="M372" s="6"/>
+    </row>
+    <row r="373" spans="3:13">
       <c r="C373" s="6"/>
-      <c r="K373" s="6"/>
-    </row>
-    <row r="374" spans="3:11">
+      <c r="M373" s="6"/>
+    </row>
+    <row r="374" spans="3:13">
       <c r="C374" s="6"/>
-      <c r="K374" s="6"/>
-    </row>
-    <row r="375" spans="3:11">
+      <c r="M374" s="6"/>
+    </row>
+    <row r="375" spans="3:13">
       <c r="C375" s="6"/>
-      <c r="K375" s="6"/>
-    </row>
-    <row r="376" spans="3:11">
+      <c r="M375" s="6"/>
+    </row>
+    <row r="376" spans="3:13">
       <c r="C376" s="6"/>
-      <c r="K376" s="6"/>
-    </row>
-    <row r="377" spans="3:11">
+      <c r="M376" s="6"/>
+    </row>
+    <row r="377" spans="3:13">
       <c r="C377" s="6"/>
-      <c r="K377" s="6"/>
-    </row>
-    <row r="378" spans="3:11">
+      <c r="M377" s="6"/>
+    </row>
+    <row r="378" spans="3:13">
       <c r="C378" s="6"/>
-      <c r="K378" s="6"/>
-    </row>
-    <row r="379" spans="3:11">
+      <c r="M378" s="6"/>
+    </row>
+    <row r="379" spans="3:13">
       <c r="C379" s="6"/>
-      <c r="K379" s="6"/>
-    </row>
-    <row r="380" spans="3:11">
+      <c r="M379" s="6"/>
+    </row>
+    <row r="380" spans="3:13">
       <c r="C380" s="6"/>
-      <c r="K380" s="6"/>
-    </row>
-    <row r="381" spans="3:11">
+      <c r="M380" s="6"/>
+    </row>
+    <row r="381" spans="3:13">
       <c r="C381" s="6"/>
-      <c r="K381" s="6"/>
-    </row>
-    <row r="382" spans="3:11">
+      <c r="M381" s="6"/>
+    </row>
+    <row r="382" spans="3:13">
       <c r="C382" s="6"/>
-      <c r="K382" s="6"/>
-    </row>
-    <row r="383" spans="3:11">
+      <c r="M382" s="6"/>
+    </row>
+    <row r="383" spans="3:13">
       <c r="C383" s="6"/>
-      <c r="K383" s="6"/>
-    </row>
-    <row r="384" spans="3:11">
+      <c r="M383" s="6"/>
+    </row>
+    <row r="384" spans="3:13">
       <c r="C384" s="6"/>
-      <c r="K384" s="6"/>
-    </row>
-    <row r="385" spans="3:11">
+      <c r="M384" s="6"/>
+    </row>
+    <row r="385" spans="3:13">
       <c r="C385" s="6"/>
-      <c r="K385" s="6"/>
-    </row>
-    <row r="386" spans="3:11">
+      <c r="M385" s="6"/>
+    </row>
+    <row r="386" spans="3:13">
       <c r="C386" s="6"/>
-      <c r="K386" s="6"/>
-    </row>
-    <row r="387" spans="3:11">
+      <c r="M386" s="6"/>
+    </row>
+    <row r="387" spans="3:13">
       <c r="C387" s="6"/>
-      <c r="K387" s="6"/>
-    </row>
-    <row r="388" spans="3:11">
+      <c r="M387" s="6"/>
+    </row>
+    <row r="388" spans="3:13">
       <c r="C388" s="6"/>
-      <c r="K388" s="6"/>
-    </row>
-    <row r="389" spans="3:11">
+      <c r="M388" s="6"/>
+    </row>
+    <row r="389" spans="3:13">
       <c r="C389" s="6"/>
-      <c r="K389" s="6"/>
-    </row>
-    <row r="390" spans="3:11">
+      <c r="M389" s="6"/>
+    </row>
+    <row r="390" spans="3:13">
       <c r="C390" s="6"/>
-      <c r="K390" s="6"/>
-    </row>
-    <row r="391" spans="3:11">
+      <c r="M390" s="6"/>
+    </row>
+    <row r="391" spans="3:13">
       <c r="C391" s="6"/>
-      <c r="K391" s="6"/>
-    </row>
-    <row r="392" spans="3:11">
+      <c r="M391" s="6"/>
+    </row>
+    <row r="392" spans="3:13">
       <c r="C392" s="6"/>
-      <c r="K392" s="6"/>
-    </row>
-    <row r="393" spans="3:11">
+      <c r="M392" s="6"/>
+    </row>
+    <row r="393" spans="3:13">
       <c r="C393" s="6"/>
-      <c r="K393" s="6"/>
-    </row>
-    <row r="394" spans="3:11">
+      <c r="M393" s="6"/>
+    </row>
+    <row r="394" spans="3:13">
       <c r="C394" s="6"/>
-      <c r="K394" s="6"/>
-    </row>
-    <row r="395" spans="3:11">
+      <c r="M394" s="6"/>
+    </row>
+    <row r="395" spans="3:13">
       <c r="C395" s="6"/>
-      <c r="K395" s="6"/>
-    </row>
-    <row r="396" spans="3:11">
+      <c r="M395" s="6"/>
+    </row>
+    <row r="396" spans="3:13">
       <c r="C396" s="6"/>
-      <c r="K396" s="6"/>
-    </row>
-    <row r="397" spans="3:11">
+      <c r="M396" s="6"/>
+    </row>
+    <row r="397" spans="3:13">
       <c r="C397" s="6"/>
-      <c r="K397" s="6"/>
-    </row>
-    <row r="398" spans="3:11">
+      <c r="M397" s="6"/>
+    </row>
+    <row r="398" spans="3:13">
       <c r="C398" s="6"/>
-      <c r="K398" s="6"/>
-    </row>
-    <row r="399" spans="3:11">
+      <c r="M398" s="6"/>
+    </row>
+    <row r="399" spans="3:13">
       <c r="C399" s="6"/>
-      <c r="K399" s="6"/>
-    </row>
-    <row r="400" spans="3:11">
+      <c r="M399" s="6"/>
+    </row>
+    <row r="400" spans="3:13">
       <c r="C400" s="6"/>
-      <c r="K400" s="6"/>
-    </row>
-    <row r="401" spans="3:11">
+      <c r="M400" s="6"/>
+    </row>
+    <row r="401" spans="3:13">
       <c r="C401" s="6"/>
-      <c r="K401" s="6"/>
-    </row>
-    <row r="437" spans="3:11">
+      <c r="M401" s="6"/>
+    </row>
+    <row r="437" spans="3:13">
       <c r="C437" s="6"/>
-      <c r="K437" s="6"/>
-    </row>
-    <row r="438" spans="3:11">
+      <c r="M437" s="6"/>
+    </row>
+    <row r="438" spans="3:13">
       <c r="C438" s="7"/>
-      <c r="K438" s="7"/>
-    </row>
-    <row r="440" spans="3:11">
+      <c r="M438" s="7"/>
+    </row>
+    <row r="440" spans="3:13">
       <c r="C440" s="6"/>
-      <c r="K440" s="6"/>
-    </row>
-    <row r="492" spans="3:11">
+      <c r="M440" s="6"/>
+    </row>
+    <row r="492" spans="3:13">
       <c r="C492" s="8"/>
-      <c r="K492" s="8"/>
-    </row>
-    <row r="493" spans="3:11">
+      <c r="M492" s="8"/>
+    </row>
+    <row r="493" spans="3:13">
       <c r="C493" s="7"/>
-      <c r="K493" s="7"/>
-    </row>
-    <row r="494" spans="3:11">
+      <c r="M493" s="7"/>
+    </row>
+    <row r="494" spans="3:13">
       <c r="C494" s="8"/>
-      <c r="K494" s="8"/>
-    </row>
-    <row r="495" spans="3:11">
+      <c r="M494" s="8"/>
+    </row>
+    <row r="495" spans="3:13">
       <c r="C495" s="6"/>
-      <c r="K495" s="6"/>
-    </row>
-    <row r="704" spans="3:11">
+      <c r="M495" s="6"/>
+    </row>
+    <row r="704" spans="3:13">
       <c r="C704" s="6"/>
-      <c r="K704" s="6"/>
-    </row>
-    <row r="742" spans="3:11">
+      <c r="M704" s="6"/>
+    </row>
+    <row r="742" spans="3:13">
       <c r="C742" s="6"/>
-      <c r="K742" s="6"/>
-    </row>
-    <row r="743" spans="3:11">
+      <c r="M742" s="6"/>
+    </row>
+    <row r="743" spans="3:13">
       <c r="C743" s="7"/>
-      <c r="K743" s="7"/>
-    </row>
-    <row r="744" spans="3:11">
+      <c r="M743" s="7"/>
+    </row>
+    <row r="744" spans="3:13">
       <c r="C744" s="7"/>
-      <c r="K744" s="7"/>
-    </row>
-    <row r="745" spans="3:11">
+      <c r="M744" s="7"/>
+    </row>
+    <row r="745" spans="3:13">
       <c r="C745" s="7"/>
-      <c r="K745" s="7"/>
-    </row>
-    <row r="748" spans="3:11">
+      <c r="M745" s="7"/>
+    </row>
+    <row r="748" spans="3:13">
       <c r="C748" s="6"/>
-      <c r="K748" s="6"/>
-    </row>
-    <row r="750" spans="3:11">
+      <c r="M748" s="6"/>
+    </row>
+    <row r="750" spans="3:13">
       <c r="C750" s="6"/>
-      <c r="K750" s="6"/>
-    </row>
-    <row r="751" spans="3:11">
+      <c r="M750" s="6"/>
+    </row>
+    <row r="751" spans="3:13">
       <c r="C751" s="6"/>
-      <c r="K751" s="6"/>
-    </row>
-    <row r="813" spans="3:11">
+      <c r="M751" s="6"/>
+    </row>
+    <row r="813" spans="3:13">
       <c r="C813" s="6"/>
-      <c r="K813" s="6"/>
-    </row>
-    <row r="846" spans="3:11">
+      <c r="M813" s="6"/>
+    </row>
+    <row r="846" spans="3:13">
       <c r="C846" s="6"/>
-      <c r="K846" s="6"/>
+      <c r="M846" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4537,22 +4657,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L846"/>
+  <dimension ref="B2:N846"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" style="4" customWidth="1"/>
-    <col min="4" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="1.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="156.42578125" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="9"/>
+    <col min="4" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="1.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="156.42578125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1">
+    <row r="2" spans="2:14" ht="14.45" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4584,12 +4706,20 @@
         <f>+I2+1</f>
         <v>2026</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:L2" si="0">+J2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4614,14 +4744,20 @@
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14">
       <c r="C4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="M4" s="6"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
@@ -4647,10 +4783,16 @@
       <c r="J5" s="15">
         <v>1.5</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K5" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
@@ -4676,10 +4818,16 @@
       <c r="J6" s="15">
         <v>2</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K6" s="15">
+        <v>2</v>
+      </c>
+      <c r="L6" s="15">
+        <v>2</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
@@ -4705,10 +4853,16 @@
       <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4734,10 +4888,16 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -4746,10 +4906,12 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -4758,10 +4920,12 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -4770,10 +4934,12 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -4782,10 +4948,12 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -4794,10 +4962,12 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -4806,10 +4976,12 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -4818,10 +4990,12 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -4830,10 +5004,12 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -4842,10 +5018,12 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -4854,10 +5032,12 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -4866,10 +5046,12 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -4878,1615 +5060,1625 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="2:14">
       <c r="C21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="12">
-        <f t="shared" ref="D22:I22" si="0">+SUM(D5:D21)</f>
+        <f t="shared" ref="D22:I22" si="1">+SUM(D5:D21)</f>
         <v>3</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6499999999999995</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="1">+SUM(J5:J21)</f>
+        <f t="shared" ref="J22:L22" si="2">+SUM(J5:J21)</f>
         <v>3.5</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="K22" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14">
       <c r="C23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="C25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="2:14">
       <c r="C26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:14">
       <c r="C27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:14">
       <c r="C28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:14">
       <c r="C29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:14">
       <c r="C30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:14">
       <c r="C31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:14">
       <c r="C32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="3:11">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="3:13">
       <c r="C33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="3:11">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="3:13">
       <c r="C34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="3:11">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="3:13">
       <c r="C35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="3:11">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="3:13">
       <c r="C36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="3:11">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="3:13">
       <c r="C37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="3:11">
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="3:13">
       <c r="C38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="3:11">
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="3:13">
       <c r="C39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="3:11">
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="3:13">
       <c r="C40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="3:11">
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="3:13">
       <c r="C41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="3:11">
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="3:13">
       <c r="C42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="3:11">
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="3:13">
       <c r="C43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="3:11">
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="3:13">
       <c r="C44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="3:11">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="3:13">
       <c r="C45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="3:11">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="3:13">
       <c r="C46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="3:11">
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="3:13">
       <c r="C47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="3:11">
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="3:13">
       <c r="C48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="3:11">
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="3:13">
       <c r="C49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="3:11">
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="3:13">
       <c r="C50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="3:11">
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="3:13">
       <c r="C51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="3:11">
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="3:13">
       <c r="C52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="3:11">
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="3:13">
       <c r="C53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="3:11">
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="3:11">
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="3:13">
       <c r="C55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="3:11">
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="3:13">
       <c r="C56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="3:11">
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="3:13">
       <c r="C57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="3:11">
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="3:13">
       <c r="C58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="3:11">
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="3:13">
       <c r="C59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="3:11">
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="3:13">
       <c r="C60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="3:11">
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="3:13">
       <c r="C61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="3:11">
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="3:13">
       <c r="C62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="3:11">
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="3:11">
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="3:13">
       <c r="C64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="3:11">
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="3:13">
       <c r="C65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="3:11">
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="3:13">
       <c r="C66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="3:11">
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="3:13">
       <c r="C67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="3:11">
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="3:13">
       <c r="C68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="3:11">
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="3:13">
       <c r="C69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="3:11">
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="3:13">
       <c r="C70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="3:11">
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="3:13">
       <c r="C71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="3:11">
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="3:13">
       <c r="C72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="3:11">
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="3:13">
       <c r="C73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="3:11">
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="3:13">
       <c r="C74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="3:11">
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="3:13">
       <c r="C75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="3:11">
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="3:13">
       <c r="C76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="3:11">
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="3:13">
       <c r="C77" s="6"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="3:13">
       <c r="C78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="3:11">
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="3:13">
       <c r="C79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="3:11">
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="3:13">
       <c r="C80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="3:11">
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="3:13">
       <c r="C81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="3:11">
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="3:13">
       <c r="C82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="3:11">
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="3:13">
       <c r="C83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="3:11">
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="3:13">
       <c r="C84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="3:11">
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="3:13">
       <c r="C85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="3:11">
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="3:13">
       <c r="C86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="3:11">
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="3:13">
       <c r="C87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="3:11">
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="3:13">
       <c r="C88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="3:11">
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="3:13">
       <c r="C89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="3:11">
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="3:13">
       <c r="C90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="3:11">
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="3:13">
       <c r="C91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="3:11">
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="3:13">
       <c r="C92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="3:11">
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="3:13">
       <c r="C93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="3:11">
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="3:13">
       <c r="C94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="3:11">
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="3:13">
       <c r="C95" s="6"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="3:11">
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="3:13">
       <c r="C96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="3:11">
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="3:13">
       <c r="C97" s="6"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="3:11">
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="3:13">
       <c r="C98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="3:11">
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="3:13">
       <c r="C99" s="6"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="3:11">
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="3:13">
       <c r="C100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="3:11">
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="3:13">
       <c r="C101" s="6"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="3:11">
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="3:13">
       <c r="C102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="3:11">
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="3:13">
       <c r="C103" s="6"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="3:11">
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="3:13">
       <c r="C104" s="6"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="3:11">
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="3:13">
       <c r="C105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="3:11">
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="3:13">
       <c r="C106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="3:11">
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="3:13">
       <c r="C107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="3:11">
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="3:13">
       <c r="C108" s="6"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="3:11">
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="3:13">
       <c r="C109" s="6"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="3:11">
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="3:13">
       <c r="C110" s="6"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="3:11">
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="3:13">
       <c r="C111" s="6"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="3:11">
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="3:13">
       <c r="C112" s="6"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="3:11">
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="3:13">
       <c r="C113" s="6"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="3:11">
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="3:13">
       <c r="C114" s="6"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="3:11">
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="3:13">
       <c r="C115" s="6"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="3:11">
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="3:13">
       <c r="C116" s="6"/>
-      <c r="K116" s="6"/>
-    </row>
-    <row r="117" spans="3:11">
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="3:13">
       <c r="C117" s="6"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="3:11">
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="3:13">
       <c r="C118" s="6"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="3:11">
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="3:13">
       <c r="C119" s="6"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="3:11">
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="3:13">
       <c r="C120" s="6"/>
-      <c r="K120" s="6"/>
-    </row>
-    <row r="121" spans="3:11">
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="3:13">
       <c r="C121" s="6"/>
-      <c r="K121" s="6"/>
-    </row>
-    <row r="122" spans="3:11">
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="3:13">
       <c r="C122" s="6"/>
-      <c r="K122" s="6"/>
-    </row>
-    <row r="123" spans="3:11">
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="3:13">
       <c r="C123" s="6"/>
-      <c r="K123" s="6"/>
-    </row>
-    <row r="124" spans="3:11">
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="3:13">
       <c r="C124" s="6"/>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" spans="3:11">
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="3:13">
       <c r="C125" s="6"/>
-      <c r="K125" s="6"/>
-    </row>
-    <row r="126" spans="3:11">
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="3:13">
       <c r="C126" s="6"/>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" spans="3:11">
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="3:13">
       <c r="C127" s="6"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="3:11">
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="3:13">
       <c r="C128" s="6"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" spans="3:11">
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="3:13">
       <c r="C129" s="6"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="3:11">
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="3:13">
       <c r="C130" s="6"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="3:11">
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="3:13">
       <c r="C131" s="6"/>
-      <c r="K131" s="6"/>
-    </row>
-    <row r="132" spans="3:11">
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="3:13">
       <c r="C132" s="6"/>
-      <c r="K132" s="6"/>
-    </row>
-    <row r="133" spans="3:11">
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="3:13">
       <c r="C133" s="6"/>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="3:11">
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="3:13">
       <c r="C134" s="6"/>
-      <c r="K134" s="6"/>
-    </row>
-    <row r="135" spans="3:11">
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="3:13">
       <c r="C135" s="6"/>
-      <c r="K135" s="6"/>
-    </row>
-    <row r="136" spans="3:11">
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="3:13">
       <c r="C136" s="6"/>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="3:11">
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="3:13">
       <c r="C137" s="6"/>
-      <c r="K137" s="6"/>
-    </row>
-    <row r="138" spans="3:11">
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="3:13">
       <c r="C138" s="6"/>
-      <c r="K138" s="6"/>
-    </row>
-    <row r="139" spans="3:11">
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="3:13">
       <c r="C139" s="6"/>
-      <c r="K139" s="6"/>
-    </row>
-    <row r="140" spans="3:11">
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="3:13">
       <c r="C140" s="6"/>
-      <c r="K140" s="6"/>
-    </row>
-    <row r="141" spans="3:11">
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="3:13">
       <c r="C141" s="6"/>
-      <c r="K141" s="6"/>
-    </row>
-    <row r="142" spans="3:11">
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="3:13">
       <c r="C142" s="6"/>
-      <c r="K142" s="6"/>
-    </row>
-    <row r="143" spans="3:11">
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="3:13">
       <c r="C143" s="6"/>
-      <c r="K143" s="6"/>
-    </row>
-    <row r="144" spans="3:11">
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="3:13">
       <c r="C144" s="6"/>
-      <c r="K144" s="6"/>
-    </row>
-    <row r="145" spans="3:11">
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="3:13">
       <c r="C145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="3:11">
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="3:13">
       <c r="C146" s="6"/>
-      <c r="K146" s="6"/>
-    </row>
-    <row r="147" spans="3:11">
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="3:13">
       <c r="C147" s="6"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" spans="3:11">
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="3:13">
       <c r="C148" s="6"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="149" spans="3:11">
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="3:13">
       <c r="C149" s="6"/>
-      <c r="K149" s="6"/>
-    </row>
-    <row r="150" spans="3:11">
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="3:13">
       <c r="C150" s="6"/>
-      <c r="K150" s="6"/>
-    </row>
-    <row r="151" spans="3:11">
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="3:13">
       <c r="C151" s="6"/>
-      <c r="K151" s="6"/>
-    </row>
-    <row r="152" spans="3:11">
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="3:13">
       <c r="C152" s="6"/>
-      <c r="K152" s="6"/>
-    </row>
-    <row r="153" spans="3:11">
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="3:13">
       <c r="C153" s="6"/>
-      <c r="K153" s="6"/>
-    </row>
-    <row r="154" spans="3:11">
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="3:13">
       <c r="C154" s="6"/>
-      <c r="K154" s="6"/>
-    </row>
-    <row r="155" spans="3:11">
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="3:13">
       <c r="C155" s="6"/>
-      <c r="K155" s="6"/>
-    </row>
-    <row r="156" spans="3:11">
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="3:13">
       <c r="C156" s="6"/>
-      <c r="K156" s="6"/>
-    </row>
-    <row r="157" spans="3:11">
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="3:13">
       <c r="C157" s="6"/>
-      <c r="K157" s="6"/>
-    </row>
-    <row r="158" spans="3:11">
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="3:13">
       <c r="C158" s="6"/>
-      <c r="K158" s="6"/>
-    </row>
-    <row r="159" spans="3:11">
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="3:13">
       <c r="C159" s="6"/>
-      <c r="K159" s="6"/>
-    </row>
-    <row r="160" spans="3:11">
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="3:13">
       <c r="C160" s="6"/>
-      <c r="K160" s="6"/>
-    </row>
-    <row r="161" spans="3:11">
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="3:13">
       <c r="C161" s="6"/>
-      <c r="K161" s="6"/>
-    </row>
-    <row r="162" spans="3:11">
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="3:13">
       <c r="C162" s="6"/>
-      <c r="K162" s="6"/>
-    </row>
-    <row r="163" spans="3:11">
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="3:13">
       <c r="C163" s="6"/>
-      <c r="K163" s="6"/>
-    </row>
-    <row r="164" spans="3:11">
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="3:13">
       <c r="C164" s="6"/>
-      <c r="K164" s="6"/>
-    </row>
-    <row r="165" spans="3:11">
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="3:13">
       <c r="C165" s="6"/>
-      <c r="K165" s="6"/>
-    </row>
-    <row r="166" spans="3:11">
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="3:13">
       <c r="C166" s="6"/>
-      <c r="K166" s="6"/>
-    </row>
-    <row r="167" spans="3:11">
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="3:13">
       <c r="C167" s="6"/>
-      <c r="K167" s="6"/>
-    </row>
-    <row r="168" spans="3:11">
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="3:13">
       <c r="C168" s="6"/>
-      <c r="K168" s="6"/>
-    </row>
-    <row r="169" spans="3:11">
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="3:13">
       <c r="C169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170" spans="3:11">
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="3:13">
       <c r="C170" s="6"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171" spans="3:11">
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="3:13">
       <c r="C171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172" spans="3:11">
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="3:13">
       <c r="C172" s="6"/>
-      <c r="K172" s="6"/>
-    </row>
-    <row r="173" spans="3:11">
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="3:13">
       <c r="C173" s="6"/>
-      <c r="K173" s="6"/>
-    </row>
-    <row r="174" spans="3:11">
+      <c r="M173" s="6"/>
+    </row>
+    <row r="174" spans="3:13">
       <c r="C174" s="6"/>
-      <c r="K174" s="6"/>
-    </row>
-    <row r="175" spans="3:11">
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="3:13">
       <c r="C175" s="6"/>
-      <c r="K175" s="6"/>
-    </row>
-    <row r="176" spans="3:11">
+      <c r="M175" s="6"/>
+    </row>
+    <row r="176" spans="3:13">
       <c r="C176" s="6"/>
-      <c r="K176" s="6"/>
-    </row>
-    <row r="177" spans="3:11">
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="3:13">
       <c r="C177" s="6"/>
-      <c r="K177" s="6"/>
-    </row>
-    <row r="178" spans="3:11">
+      <c r="M177" s="6"/>
+    </row>
+    <row r="178" spans="3:13">
       <c r="C178" s="6"/>
-      <c r="K178" s="6"/>
-    </row>
-    <row r="179" spans="3:11">
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="3:13">
       <c r="C179" s="6"/>
-      <c r="K179" s="6"/>
-    </row>
-    <row r="180" spans="3:11">
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="3:13">
       <c r="C180" s="6"/>
-      <c r="K180" s="6"/>
-    </row>
-    <row r="181" spans="3:11">
+      <c r="M180" s="6"/>
+    </row>
+    <row r="181" spans="3:13">
       <c r="C181" s="6"/>
-      <c r="K181" s="6"/>
-    </row>
-    <row r="182" spans="3:11">
+      <c r="M181" s="6"/>
+    </row>
+    <row r="182" spans="3:13">
       <c r="C182" s="6"/>
-      <c r="K182" s="6"/>
-    </row>
-    <row r="183" spans="3:11">
+      <c r="M182" s="6"/>
+    </row>
+    <row r="183" spans="3:13">
       <c r="C183" s="6"/>
-      <c r="K183" s="6"/>
-    </row>
-    <row r="184" spans="3:11">
+      <c r="M183" s="6"/>
+    </row>
+    <row r="184" spans="3:13">
       <c r="C184" s="6"/>
-      <c r="K184" s="6"/>
-    </row>
-    <row r="185" spans="3:11">
+      <c r="M184" s="6"/>
+    </row>
+    <row r="185" spans="3:13">
       <c r="C185" s="6"/>
-      <c r="K185" s="6"/>
-    </row>
-    <row r="186" spans="3:11">
+      <c r="M185" s="6"/>
+    </row>
+    <row r="186" spans="3:13">
       <c r="C186" s="7"/>
-      <c r="K186" s="7"/>
-    </row>
-    <row r="187" spans="3:11">
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" spans="3:13">
       <c r="C187" s="7"/>
-      <c r="K187" s="7"/>
-    </row>
-    <row r="188" spans="3:11">
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" spans="3:13">
       <c r="C188" s="7"/>
-      <c r="K188" s="7"/>
-    </row>
-    <row r="189" spans="3:11">
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" spans="3:13">
       <c r="C189" s="7"/>
-      <c r="K189" s="7"/>
-    </row>
-    <row r="190" spans="3:11">
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" spans="3:13">
       <c r="C190" s="7"/>
-      <c r="K190" s="7"/>
-    </row>
-    <row r="191" spans="3:11">
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" spans="3:13">
       <c r="C191" s="7"/>
-      <c r="K191" s="7"/>
-    </row>
-    <row r="192" spans="3:11">
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" spans="3:13">
       <c r="C192" s="7"/>
-      <c r="K192" s="7"/>
-    </row>
-    <row r="193" spans="3:11">
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" spans="3:13">
       <c r="C193" s="7"/>
-      <c r="K193" s="7"/>
-    </row>
-    <row r="195" spans="3:11">
+      <c r="M193" s="7"/>
+    </row>
+    <row r="195" spans="3:13">
       <c r="C195" s="6"/>
-      <c r="K195" s="6"/>
-    </row>
-    <row r="200" spans="3:11">
+      <c r="M195" s="6"/>
+    </row>
+    <row r="200" spans="3:13">
       <c r="C200" s="6"/>
-      <c r="K200" s="6"/>
-    </row>
-    <row r="201" spans="3:11">
+      <c r="M200" s="6"/>
+    </row>
+    <row r="201" spans="3:13">
       <c r="C201" s="6"/>
-      <c r="K201" s="6"/>
-    </row>
-    <row r="202" spans="3:11">
+      <c r="M201" s="6"/>
+    </row>
+    <row r="202" spans="3:13">
       <c r="C202" s="6"/>
-      <c r="K202" s="6"/>
-    </row>
-    <row r="203" spans="3:11">
+      <c r="M202" s="6"/>
+    </row>
+    <row r="203" spans="3:13">
       <c r="C203" s="6"/>
-      <c r="K203" s="6"/>
-    </row>
-    <row r="204" spans="3:11">
+      <c r="M203" s="6"/>
+    </row>
+    <row r="204" spans="3:13">
       <c r="C204" s="6"/>
-      <c r="K204" s="6"/>
-    </row>
-    <row r="205" spans="3:11">
+      <c r="M204" s="6"/>
+    </row>
+    <row r="205" spans="3:13">
       <c r="C205" s="6"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206" spans="3:11">
+      <c r="M205" s="6"/>
+    </row>
+    <row r="206" spans="3:13">
       <c r="C206" s="6"/>
-      <c r="K206" s="6"/>
-    </row>
-    <row r="207" spans="3:11">
+      <c r="M206" s="6"/>
+    </row>
+    <row r="207" spans="3:13">
       <c r="C207" s="6"/>
-      <c r="K207" s="6"/>
-    </row>
-    <row r="208" spans="3:11">
+      <c r="M207" s="6"/>
+    </row>
+    <row r="208" spans="3:13">
       <c r="C208" s="6"/>
-      <c r="K208" s="6"/>
-    </row>
-    <row r="209" spans="3:11">
+      <c r="M208" s="6"/>
+    </row>
+    <row r="209" spans="3:13">
       <c r="C209" s="6"/>
-      <c r="K209" s="6"/>
-    </row>
-    <row r="210" spans="3:11">
+      <c r="M209" s="6"/>
+    </row>
+    <row r="210" spans="3:13">
       <c r="C210" s="6"/>
-      <c r="K210" s="6"/>
-    </row>
-    <row r="211" spans="3:11">
+      <c r="M210" s="6"/>
+    </row>
+    <row r="211" spans="3:13">
       <c r="C211" s="6"/>
-      <c r="K211" s="6"/>
-    </row>
-    <row r="212" spans="3:11">
+      <c r="M211" s="6"/>
+    </row>
+    <row r="212" spans="3:13">
       <c r="C212" s="6"/>
-      <c r="K212" s="6"/>
-    </row>
-    <row r="213" spans="3:11">
+      <c r="M212" s="6"/>
+    </row>
+    <row r="213" spans="3:13">
       <c r="C213" s="6"/>
-      <c r="K213" s="6"/>
-    </row>
-    <row r="214" spans="3:11">
+      <c r="M213" s="6"/>
+    </row>
+    <row r="214" spans="3:13">
       <c r="C214" s="6"/>
-      <c r="K214" s="6"/>
-    </row>
-    <row r="215" spans="3:11">
+      <c r="M214" s="6"/>
+    </row>
+    <row r="215" spans="3:13">
       <c r="C215" s="6"/>
-      <c r="K215" s="6"/>
-    </row>
-    <row r="216" spans="3:11">
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="3:13">
       <c r="C216" s="6"/>
-      <c r="K216" s="6"/>
-    </row>
-    <row r="217" spans="3:11">
+      <c r="M216" s="6"/>
+    </row>
+    <row r="217" spans="3:13">
       <c r="C217" s="6"/>
-      <c r="K217" s="6"/>
-    </row>
-    <row r="218" spans="3:11">
+      <c r="M217" s="6"/>
+    </row>
+    <row r="218" spans="3:13">
       <c r="C218" s="6"/>
-      <c r="K218" s="6"/>
-    </row>
-    <row r="219" spans="3:11">
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="3:13">
       <c r="C219" s="6"/>
-      <c r="K219" s="6"/>
-    </row>
-    <row r="220" spans="3:11">
+      <c r="M219" s="6"/>
+    </row>
+    <row r="220" spans="3:13">
       <c r="C220" s="6"/>
-      <c r="K220" s="6"/>
-    </row>
-    <row r="221" spans="3:11">
+      <c r="M220" s="6"/>
+    </row>
+    <row r="221" spans="3:13">
       <c r="C221" s="6"/>
-      <c r="K221" s="6"/>
-    </row>
-    <row r="222" spans="3:11">
+      <c r="M221" s="6"/>
+    </row>
+    <row r="222" spans="3:13">
       <c r="C222" s="6"/>
-      <c r="K222" s="6"/>
-    </row>
-    <row r="223" spans="3:11">
+      <c r="M222" s="6"/>
+    </row>
+    <row r="223" spans="3:13">
       <c r="C223" s="6"/>
-      <c r="K223" s="6"/>
-    </row>
-    <row r="224" spans="3:11">
+      <c r="M223" s="6"/>
+    </row>
+    <row r="224" spans="3:13">
       <c r="C224" s="6"/>
-      <c r="K224" s="6"/>
-    </row>
-    <row r="225" spans="3:11">
+      <c r="M224" s="6"/>
+    </row>
+    <row r="225" spans="3:13">
       <c r="C225" s="6"/>
-      <c r="K225" s="6"/>
-    </row>
-    <row r="226" spans="3:11">
+      <c r="M225" s="6"/>
+    </row>
+    <row r="226" spans="3:13">
       <c r="C226" s="6"/>
-      <c r="K226" s="6"/>
-    </row>
-    <row r="227" spans="3:11">
+      <c r="M226" s="6"/>
+    </row>
+    <row r="227" spans="3:13">
       <c r="C227" s="6"/>
-      <c r="K227" s="6"/>
-    </row>
-    <row r="228" spans="3:11">
+      <c r="M227" s="6"/>
+    </row>
+    <row r="228" spans="3:13">
       <c r="C228" s="6"/>
-      <c r="K228" s="6"/>
-    </row>
-    <row r="229" spans="3:11">
+      <c r="M228" s="6"/>
+    </row>
+    <row r="229" spans="3:13">
       <c r="C229" s="6"/>
-      <c r="K229" s="6"/>
-    </row>
-    <row r="230" spans="3:11">
+      <c r="M229" s="6"/>
+    </row>
+    <row r="230" spans="3:13">
       <c r="C230" s="6"/>
-      <c r="K230" s="6"/>
-    </row>
-    <row r="231" spans="3:11">
+      <c r="M230" s="6"/>
+    </row>
+    <row r="231" spans="3:13">
       <c r="C231" s="6"/>
-      <c r="K231" s="6"/>
-    </row>
-    <row r="232" spans="3:11">
+      <c r="M231" s="6"/>
+    </row>
+    <row r="232" spans="3:13">
       <c r="C232" s="6"/>
-      <c r="K232" s="6"/>
-    </row>
-    <row r="233" spans="3:11">
+      <c r="M232" s="6"/>
+    </row>
+    <row r="233" spans="3:13">
       <c r="C233" s="6"/>
-      <c r="K233" s="6"/>
-    </row>
-    <row r="234" spans="3:11">
+      <c r="M233" s="6"/>
+    </row>
+    <row r="234" spans="3:13">
       <c r="C234" s="6"/>
-      <c r="K234" s="6"/>
-    </row>
-    <row r="235" spans="3:11">
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="3:13">
       <c r="C235" s="6"/>
-      <c r="K235" s="6"/>
-    </row>
-    <row r="236" spans="3:11">
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="3:13">
       <c r="C236" s="6"/>
-      <c r="K236" s="6"/>
-    </row>
-    <row r="237" spans="3:11">
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="3:13">
       <c r="C237" s="6"/>
-      <c r="K237" s="6"/>
-    </row>
-    <row r="238" spans="3:11">
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="3:13">
       <c r="C238" s="6"/>
-      <c r="K238" s="6"/>
-    </row>
-    <row r="239" spans="3:11">
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="3:13">
       <c r="C239" s="6"/>
-      <c r="K239" s="6"/>
-    </row>
-    <row r="240" spans="3:11">
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="3:13">
       <c r="C240" s="6"/>
-      <c r="K240" s="6"/>
-    </row>
-    <row r="241" spans="3:11">
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="3:13">
       <c r="C241" s="6"/>
-      <c r="K241" s="6"/>
-    </row>
-    <row r="242" spans="3:11">
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="3:13">
       <c r="C242" s="6"/>
-      <c r="K242" s="6"/>
-    </row>
-    <row r="243" spans="3:11">
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="3:13">
       <c r="C243" s="6"/>
-      <c r="K243" s="6"/>
-    </row>
-    <row r="244" spans="3:11">
+      <c r="M243" s="6"/>
+    </row>
+    <row r="244" spans="3:13">
       <c r="C244" s="6"/>
-      <c r="K244" s="6"/>
-    </row>
-    <row r="245" spans="3:11">
+      <c r="M244" s="6"/>
+    </row>
+    <row r="245" spans="3:13">
       <c r="C245" s="6"/>
-      <c r="K245" s="6"/>
-    </row>
-    <row r="246" spans="3:11">
+      <c r="M245" s="6"/>
+    </row>
+    <row r="246" spans="3:13">
       <c r="C246" s="6"/>
-      <c r="K246" s="6"/>
-    </row>
-    <row r="247" spans="3:11">
+      <c r="M246" s="6"/>
+    </row>
+    <row r="247" spans="3:13">
       <c r="C247" s="6"/>
-      <c r="K247" s="6"/>
-    </row>
-    <row r="248" spans="3:11">
+      <c r="M247" s="6"/>
+    </row>
+    <row r="248" spans="3:13">
       <c r="C248" s="6"/>
-      <c r="K248" s="6"/>
-    </row>
-    <row r="249" spans="3:11">
+      <c r="M248" s="6"/>
+    </row>
+    <row r="249" spans="3:13">
       <c r="C249" s="6"/>
-      <c r="K249" s="6"/>
-    </row>
-    <row r="250" spans="3:11">
+      <c r="M249" s="6"/>
+    </row>
+    <row r="250" spans="3:13">
       <c r="C250" s="6"/>
-      <c r="K250" s="6"/>
-    </row>
-    <row r="251" spans="3:11">
+      <c r="M250" s="6"/>
+    </row>
+    <row r="251" spans="3:13">
       <c r="C251" s="6"/>
-      <c r="K251" s="6"/>
-    </row>
-    <row r="252" spans="3:11">
+      <c r="M251" s="6"/>
+    </row>
+    <row r="252" spans="3:13">
       <c r="C252" s="6"/>
-      <c r="K252" s="6"/>
-    </row>
-    <row r="253" spans="3:11">
+      <c r="M252" s="6"/>
+    </row>
+    <row r="253" spans="3:13">
       <c r="C253" s="6"/>
-      <c r="K253" s="6"/>
-    </row>
-    <row r="254" spans="3:11">
+      <c r="M253" s="6"/>
+    </row>
+    <row r="254" spans="3:13">
       <c r="C254" s="6"/>
-      <c r="K254" s="6"/>
-    </row>
-    <row r="255" spans="3:11">
+      <c r="M254" s="6"/>
+    </row>
+    <row r="255" spans="3:13">
       <c r="C255" s="6"/>
-      <c r="K255" s="6"/>
-    </row>
-    <row r="256" spans="3:11">
+      <c r="M255" s="6"/>
+    </row>
+    <row r="256" spans="3:13">
       <c r="C256" s="6"/>
-      <c r="K256" s="6"/>
-    </row>
-    <row r="257" spans="3:11">
+      <c r="M256" s="6"/>
+    </row>
+    <row r="257" spans="3:13">
       <c r="C257" s="6"/>
-      <c r="K257" s="6"/>
-    </row>
-    <row r="258" spans="3:11">
+      <c r="M257" s="6"/>
+    </row>
+    <row r="258" spans="3:13">
       <c r="C258" s="6"/>
-      <c r="K258" s="6"/>
-    </row>
-    <row r="259" spans="3:11">
+      <c r="M258" s="6"/>
+    </row>
+    <row r="259" spans="3:13">
       <c r="C259" s="6"/>
-      <c r="K259" s="6"/>
-    </row>
-    <row r="260" spans="3:11">
+      <c r="M259" s="6"/>
+    </row>
+    <row r="260" spans="3:13">
       <c r="C260" s="6"/>
-      <c r="K260" s="6"/>
-    </row>
-    <row r="261" spans="3:11">
+      <c r="M260" s="6"/>
+    </row>
+    <row r="261" spans="3:13">
       <c r="C261" s="6"/>
-      <c r="K261" s="6"/>
-    </row>
-    <row r="262" spans="3:11">
+      <c r="M261" s="6"/>
+    </row>
+    <row r="262" spans="3:13">
       <c r="C262" s="6"/>
-      <c r="K262" s="6"/>
-    </row>
-    <row r="263" spans="3:11">
+      <c r="M262" s="6"/>
+    </row>
+    <row r="263" spans="3:13">
       <c r="C263" s="6"/>
-      <c r="K263" s="6"/>
-    </row>
-    <row r="264" spans="3:11">
+      <c r="M263" s="6"/>
+    </row>
+    <row r="264" spans="3:13">
       <c r="C264" s="6"/>
-      <c r="K264" s="6"/>
-    </row>
-    <row r="265" spans="3:11">
+      <c r="M264" s="6"/>
+    </row>
+    <row r="265" spans="3:13">
       <c r="C265" s="6"/>
-      <c r="K265" s="6"/>
-    </row>
-    <row r="266" spans="3:11">
+      <c r="M265" s="6"/>
+    </row>
+    <row r="266" spans="3:13">
       <c r="C266" s="6"/>
-      <c r="K266" s="6"/>
-    </row>
-    <row r="267" spans="3:11">
+      <c r="M266" s="6"/>
+    </row>
+    <row r="267" spans="3:13">
       <c r="C267" s="6"/>
-      <c r="K267" s="6"/>
-    </row>
-    <row r="268" spans="3:11">
+      <c r="M267" s="6"/>
+    </row>
+    <row r="268" spans="3:13">
       <c r="C268" s="6"/>
-      <c r="K268" s="6"/>
-    </row>
-    <row r="269" spans="3:11">
+      <c r="M268" s="6"/>
+    </row>
+    <row r="269" spans="3:13">
       <c r="C269" s="6"/>
-      <c r="K269" s="6"/>
-    </row>
-    <row r="270" spans="3:11">
+      <c r="M269" s="6"/>
+    </row>
+    <row r="270" spans="3:13">
       <c r="C270" s="6"/>
-      <c r="K270" s="6"/>
-    </row>
-    <row r="271" spans="3:11">
+      <c r="M270" s="6"/>
+    </row>
+    <row r="271" spans="3:13">
       <c r="C271" s="6"/>
-      <c r="K271" s="6"/>
-    </row>
-    <row r="272" spans="3:11">
+      <c r="M271" s="6"/>
+    </row>
+    <row r="272" spans="3:13">
       <c r="C272" s="6"/>
-      <c r="K272" s="6"/>
-    </row>
-    <row r="273" spans="3:11">
+      <c r="M272" s="6"/>
+    </row>
+    <row r="273" spans="3:13">
       <c r="C273" s="6"/>
-      <c r="K273" s="6"/>
-    </row>
-    <row r="274" spans="3:11">
+      <c r="M273" s="6"/>
+    </row>
+    <row r="274" spans="3:13">
       <c r="C274" s="6"/>
-      <c r="K274" s="6"/>
-    </row>
-    <row r="275" spans="3:11">
+      <c r="M274" s="6"/>
+    </row>
+    <row r="275" spans="3:13">
       <c r="C275" s="6"/>
-      <c r="K275" s="6"/>
-    </row>
-    <row r="276" spans="3:11">
+      <c r="M275" s="6"/>
+    </row>
+    <row r="276" spans="3:13">
       <c r="C276" s="6"/>
-      <c r="K276" s="6"/>
-    </row>
-    <row r="277" spans="3:11">
+      <c r="M276" s="6"/>
+    </row>
+    <row r="277" spans="3:13">
       <c r="C277" s="6"/>
-      <c r="K277" s="6"/>
-    </row>
-    <row r="278" spans="3:11">
+      <c r="M277" s="6"/>
+    </row>
+    <row r="278" spans="3:13">
       <c r="C278" s="6"/>
-      <c r="K278" s="6"/>
-    </row>
-    <row r="279" spans="3:11">
+      <c r="M278" s="6"/>
+    </row>
+    <row r="279" spans="3:13">
       <c r="C279" s="6"/>
-      <c r="K279" s="6"/>
-    </row>
-    <row r="280" spans="3:11">
+      <c r="M279" s="6"/>
+    </row>
+    <row r="280" spans="3:13">
       <c r="C280" s="6"/>
-      <c r="K280" s="6"/>
-    </row>
-    <row r="281" spans="3:11">
+      <c r="M280" s="6"/>
+    </row>
+    <row r="281" spans="3:13">
       <c r="C281" s="6"/>
-      <c r="K281" s="6"/>
-    </row>
-    <row r="282" spans="3:11">
+      <c r="M281" s="6"/>
+    </row>
+    <row r="282" spans="3:13">
       <c r="C282" s="6"/>
-      <c r="K282" s="6"/>
-    </row>
-    <row r="283" spans="3:11">
+      <c r="M282" s="6"/>
+    </row>
+    <row r="283" spans="3:13">
       <c r="C283" s="6"/>
-      <c r="K283" s="6"/>
-    </row>
-    <row r="284" spans="3:11">
+      <c r="M283" s="6"/>
+    </row>
+    <row r="284" spans="3:13">
       <c r="C284" s="6"/>
-      <c r="K284" s="6"/>
-    </row>
-    <row r="285" spans="3:11">
+      <c r="M284" s="6"/>
+    </row>
+    <row r="285" spans="3:13">
       <c r="C285" s="6"/>
-      <c r="K285" s="6"/>
-    </row>
-    <row r="286" spans="3:11">
+      <c r="M285" s="6"/>
+    </row>
+    <row r="286" spans="3:13">
       <c r="C286" s="6"/>
-      <c r="K286" s="6"/>
-    </row>
-    <row r="287" spans="3:11">
+      <c r="M286" s="6"/>
+    </row>
+    <row r="287" spans="3:13">
       <c r="C287" s="6"/>
-      <c r="K287" s="6"/>
-    </row>
-    <row r="288" spans="3:11">
+      <c r="M287" s="6"/>
+    </row>
+    <row r="288" spans="3:13">
       <c r="C288" s="6"/>
-      <c r="K288" s="6"/>
-    </row>
-    <row r="289" spans="3:11">
+      <c r="M288" s="6"/>
+    </row>
+    <row r="289" spans="3:13">
       <c r="C289" s="6"/>
-      <c r="K289" s="6"/>
-    </row>
-    <row r="290" spans="3:11">
+      <c r="M289" s="6"/>
+    </row>
+    <row r="290" spans="3:13">
       <c r="C290" s="6"/>
-      <c r="K290" s="6"/>
-    </row>
-    <row r="292" spans="3:11">
+      <c r="M290" s="6"/>
+    </row>
+    <row r="292" spans="3:13">
       <c r="C292" s="6"/>
-      <c r="K292" s="6"/>
-    </row>
-    <row r="293" spans="3:11">
+      <c r="M292" s="6"/>
+    </row>
+    <row r="293" spans="3:13">
       <c r="C293" s="6"/>
-      <c r="K293" s="6"/>
-    </row>
-    <row r="294" spans="3:11">
+      <c r="M293" s="6"/>
+    </row>
+    <row r="294" spans="3:13">
       <c r="C294" s="6"/>
-      <c r="K294" s="6"/>
-    </row>
-    <row r="295" spans="3:11">
+      <c r="M294" s="6"/>
+    </row>
+    <row r="295" spans="3:13">
       <c r="C295" s="6"/>
-      <c r="K295" s="6"/>
-    </row>
-    <row r="296" spans="3:11">
+      <c r="M295" s="6"/>
+    </row>
+    <row r="296" spans="3:13">
       <c r="C296" s="6"/>
-      <c r="K296" s="6"/>
-    </row>
-    <row r="297" spans="3:11">
+      <c r="M296" s="6"/>
+    </row>
+    <row r="297" spans="3:13">
       <c r="C297" s="6"/>
-      <c r="K297" s="6"/>
-    </row>
-    <row r="298" spans="3:11">
+      <c r="M297" s="6"/>
+    </row>
+    <row r="298" spans="3:13">
       <c r="C298" s="6"/>
-      <c r="K298" s="6"/>
-    </row>
-    <row r="299" spans="3:11">
+      <c r="M298" s="6"/>
+    </row>
+    <row r="299" spans="3:13">
       <c r="C299" s="6"/>
-      <c r="K299" s="6"/>
-    </row>
-    <row r="300" spans="3:11">
+      <c r="M299" s="6"/>
+    </row>
+    <row r="300" spans="3:13">
       <c r="C300" s="6"/>
-      <c r="K300" s="6"/>
-    </row>
-    <row r="301" spans="3:11">
+      <c r="M300" s="6"/>
+    </row>
+    <row r="301" spans="3:13">
       <c r="C301" s="6"/>
-      <c r="K301" s="6"/>
-    </row>
-    <row r="302" spans="3:11">
+      <c r="M301" s="6"/>
+    </row>
+    <row r="302" spans="3:13">
       <c r="C302" s="6"/>
-      <c r="K302" s="6"/>
-    </row>
-    <row r="303" spans="3:11">
+      <c r="M302" s="6"/>
+    </row>
+    <row r="303" spans="3:13">
       <c r="C303" s="6"/>
-      <c r="K303" s="6"/>
-    </row>
-    <row r="304" spans="3:11">
+      <c r="M303" s="6"/>
+    </row>
+    <row r="304" spans="3:13">
       <c r="C304" s="6"/>
-      <c r="K304" s="6"/>
-    </row>
-    <row r="305" spans="3:11">
+      <c r="M304" s="6"/>
+    </row>
+    <row r="305" spans="3:13">
       <c r="C305" s="6"/>
-      <c r="K305" s="6"/>
-    </row>
-    <row r="306" spans="3:11">
+      <c r="M305" s="6"/>
+    </row>
+    <row r="306" spans="3:13">
       <c r="C306" s="6"/>
-      <c r="K306" s="6"/>
-    </row>
-    <row r="307" spans="3:11">
+      <c r="M306" s="6"/>
+    </row>
+    <row r="307" spans="3:13">
       <c r="C307" s="6"/>
-      <c r="K307" s="6"/>
-    </row>
-    <row r="308" spans="3:11">
+      <c r="M307" s="6"/>
+    </row>
+    <row r="308" spans="3:13">
       <c r="C308" s="6"/>
-      <c r="K308" s="6"/>
-    </row>
-    <row r="309" spans="3:11">
+      <c r="M308" s="6"/>
+    </row>
+    <row r="309" spans="3:13">
       <c r="C309" s="6"/>
-      <c r="K309" s="6"/>
-    </row>
-    <row r="310" spans="3:11">
+      <c r="M309" s="6"/>
+    </row>
+    <row r="310" spans="3:13">
       <c r="C310" s="6"/>
-      <c r="K310" s="6"/>
-    </row>
-    <row r="311" spans="3:11">
+      <c r="M310" s="6"/>
+    </row>
+    <row r="311" spans="3:13">
       <c r="C311" s="6"/>
-      <c r="K311" s="6"/>
-    </row>
-    <row r="312" spans="3:11">
+      <c r="M311" s="6"/>
+    </row>
+    <row r="312" spans="3:13">
       <c r="C312" s="6"/>
-      <c r="K312" s="6"/>
-    </row>
-    <row r="313" spans="3:11">
+      <c r="M312" s="6"/>
+    </row>
+    <row r="313" spans="3:13">
       <c r="C313" s="6"/>
-      <c r="K313" s="6"/>
-    </row>
-    <row r="314" spans="3:11">
+      <c r="M313" s="6"/>
+    </row>
+    <row r="314" spans="3:13">
       <c r="C314" s="6"/>
-      <c r="K314" s="6"/>
-    </row>
-    <row r="315" spans="3:11">
+      <c r="M314" s="6"/>
+    </row>
+    <row r="315" spans="3:13">
       <c r="C315" s="6"/>
-      <c r="K315" s="6"/>
-    </row>
-    <row r="316" spans="3:11">
+      <c r="M315" s="6"/>
+    </row>
+    <row r="316" spans="3:13">
       <c r="C316" s="6"/>
-      <c r="K316" s="6"/>
-    </row>
-    <row r="317" spans="3:11">
+      <c r="M316" s="6"/>
+    </row>
+    <row r="317" spans="3:13">
       <c r="C317" s="6"/>
-      <c r="K317" s="6"/>
-    </row>
-    <row r="318" spans="3:11">
+      <c r="M317" s="6"/>
+    </row>
+    <row r="318" spans="3:13">
       <c r="C318" s="6"/>
-      <c r="K318" s="6"/>
-    </row>
-    <row r="319" spans="3:11">
+      <c r="M318" s="6"/>
+    </row>
+    <row r="319" spans="3:13">
       <c r="C319" s="6"/>
-      <c r="K319" s="6"/>
-    </row>
-    <row r="320" spans="3:11">
+      <c r="M319" s="6"/>
+    </row>
+    <row r="320" spans="3:13">
       <c r="C320" s="6"/>
-      <c r="K320" s="6"/>
-    </row>
-    <row r="321" spans="3:11">
+      <c r="M320" s="6"/>
+    </row>
+    <row r="321" spans="3:13">
       <c r="C321" s="6"/>
-      <c r="K321" s="6"/>
-    </row>
-    <row r="322" spans="3:11">
+      <c r="M321" s="6"/>
+    </row>
+    <row r="322" spans="3:13">
       <c r="C322" s="6"/>
-      <c r="K322" s="6"/>
-    </row>
-    <row r="323" spans="3:11">
+      <c r="M322" s="6"/>
+    </row>
+    <row r="323" spans="3:13">
       <c r="C323" s="6"/>
-      <c r="K323" s="6"/>
-    </row>
-    <row r="324" spans="3:11">
+      <c r="M323" s="6"/>
+    </row>
+    <row r="324" spans="3:13">
       <c r="C324" s="6"/>
-      <c r="K324" s="6"/>
-    </row>
-    <row r="325" spans="3:11">
+      <c r="M324" s="6"/>
+    </row>
+    <row r="325" spans="3:13">
       <c r="C325" s="6"/>
-      <c r="K325" s="6"/>
-    </row>
-    <row r="326" spans="3:11">
+      <c r="M325" s="6"/>
+    </row>
+    <row r="326" spans="3:13">
       <c r="C326" s="6"/>
-      <c r="K326" s="6"/>
-    </row>
-    <row r="327" spans="3:11">
+      <c r="M326" s="6"/>
+    </row>
+    <row r="327" spans="3:13">
       <c r="C327" s="6"/>
-      <c r="K327" s="6"/>
-    </row>
-    <row r="328" spans="3:11">
+      <c r="M327" s="6"/>
+    </row>
+    <row r="328" spans="3:13">
       <c r="C328" s="6"/>
-      <c r="K328" s="6"/>
-    </row>
-    <row r="329" spans="3:11">
+      <c r="M328" s="6"/>
+    </row>
+    <row r="329" spans="3:13">
       <c r="C329" s="6"/>
-      <c r="K329" s="6"/>
-    </row>
-    <row r="330" spans="3:11">
+      <c r="M329" s="6"/>
+    </row>
+    <row r="330" spans="3:13">
       <c r="C330" s="6"/>
-      <c r="K330" s="6"/>
-    </row>
-    <row r="331" spans="3:11">
+      <c r="M330" s="6"/>
+    </row>
+    <row r="331" spans="3:13">
       <c r="C331" s="6"/>
-      <c r="K331" s="6"/>
-    </row>
-    <row r="332" spans="3:11">
+      <c r="M331" s="6"/>
+    </row>
+    <row r="332" spans="3:13">
       <c r="C332" s="6"/>
-      <c r="K332" s="6"/>
-    </row>
-    <row r="333" spans="3:11">
+      <c r="M332" s="6"/>
+    </row>
+    <row r="333" spans="3:13">
       <c r="C333" s="6"/>
-      <c r="K333" s="6"/>
-    </row>
-    <row r="334" spans="3:11">
+      <c r="M333" s="6"/>
+    </row>
+    <row r="334" spans="3:13">
       <c r="C334" s="6"/>
-      <c r="K334" s="6"/>
-    </row>
-    <row r="335" spans="3:11">
+      <c r="M334" s="6"/>
+    </row>
+    <row r="335" spans="3:13">
       <c r="C335" s="6"/>
-      <c r="K335" s="6"/>
-    </row>
-    <row r="336" spans="3:11">
+      <c r="M335" s="6"/>
+    </row>
+    <row r="336" spans="3:13">
       <c r="C336" s="6"/>
-      <c r="K336" s="6"/>
-    </row>
-    <row r="337" spans="3:11">
+      <c r="M336" s="6"/>
+    </row>
+    <row r="337" spans="3:13">
       <c r="C337" s="6"/>
-      <c r="K337" s="6"/>
-    </row>
-    <row r="338" spans="3:11">
+      <c r="M337" s="6"/>
+    </row>
+    <row r="338" spans="3:13">
       <c r="C338" s="6"/>
-      <c r="K338" s="6"/>
-    </row>
-    <row r="339" spans="3:11">
+      <c r="M338" s="6"/>
+    </row>
+    <row r="339" spans="3:13">
       <c r="C339" s="6"/>
-      <c r="K339" s="6"/>
-    </row>
-    <row r="340" spans="3:11">
+      <c r="M339" s="6"/>
+    </row>
+    <row r="340" spans="3:13">
       <c r="C340" s="6"/>
-      <c r="K340" s="6"/>
-    </row>
-    <row r="341" spans="3:11">
+      <c r="M340" s="6"/>
+    </row>
+    <row r="341" spans="3:13">
       <c r="C341" s="6"/>
-      <c r="K341" s="6"/>
-    </row>
-    <row r="342" spans="3:11">
+      <c r="M341" s="6"/>
+    </row>
+    <row r="342" spans="3:13">
       <c r="C342" s="6"/>
-      <c r="K342" s="6"/>
-    </row>
-    <row r="343" spans="3:11">
+      <c r="M342" s="6"/>
+    </row>
+    <row r="343" spans="3:13">
       <c r="C343" s="6"/>
-      <c r="K343" s="6"/>
-    </row>
-    <row r="344" spans="3:11">
+      <c r="M343" s="6"/>
+    </row>
+    <row r="344" spans="3:13">
       <c r="C344" s="6"/>
-      <c r="K344" s="6"/>
-    </row>
-    <row r="345" spans="3:11">
+      <c r="M344" s="6"/>
+    </row>
+    <row r="345" spans="3:13">
       <c r="C345" s="6"/>
-      <c r="K345" s="6"/>
-    </row>
-    <row r="346" spans="3:11">
+      <c r="M345" s="6"/>
+    </row>
+    <row r="346" spans="3:13">
       <c r="C346" s="6"/>
-      <c r="K346" s="6"/>
-    </row>
-    <row r="347" spans="3:11">
+      <c r="M346" s="6"/>
+    </row>
+    <row r="347" spans="3:13">
       <c r="C347" s="6"/>
-      <c r="K347" s="6"/>
-    </row>
-    <row r="348" spans="3:11">
+      <c r="M347" s="6"/>
+    </row>
+    <row r="348" spans="3:13">
       <c r="C348" s="6"/>
-      <c r="K348" s="6"/>
-    </row>
-    <row r="349" spans="3:11">
+      <c r="M348" s="6"/>
+    </row>
+    <row r="349" spans="3:13">
       <c r="C349" s="6"/>
-      <c r="K349" s="6"/>
-    </row>
-    <row r="350" spans="3:11">
+      <c r="M349" s="6"/>
+    </row>
+    <row r="350" spans="3:13">
       <c r="C350" s="6"/>
-      <c r="K350" s="6"/>
-    </row>
-    <row r="351" spans="3:11">
+      <c r="M350" s="6"/>
+    </row>
+    <row r="351" spans="3:13">
       <c r="C351" s="6"/>
-      <c r="K351" s="6"/>
-    </row>
-    <row r="352" spans="3:11">
+      <c r="M351" s="6"/>
+    </row>
+    <row r="352" spans="3:13">
       <c r="C352" s="6"/>
-      <c r="K352" s="6"/>
-    </row>
-    <row r="353" spans="3:11">
+      <c r="M352" s="6"/>
+    </row>
+    <row r="353" spans="3:13">
       <c r="C353" s="6"/>
-      <c r="K353" s="6"/>
-    </row>
-    <row r="354" spans="3:11">
+      <c r="M353" s="6"/>
+    </row>
+    <row r="354" spans="3:13">
       <c r="C354" s="6"/>
-      <c r="K354" s="6"/>
-    </row>
-    <row r="355" spans="3:11">
+      <c r="M354" s="6"/>
+    </row>
+    <row r="355" spans="3:13">
       <c r="C355" s="6"/>
-      <c r="K355" s="6"/>
-    </row>
-    <row r="356" spans="3:11">
+      <c r="M355" s="6"/>
+    </row>
+    <row r="356" spans="3:13">
       <c r="C356" s="6"/>
-      <c r="K356" s="6"/>
-    </row>
-    <row r="357" spans="3:11">
+      <c r="M356" s="6"/>
+    </row>
+    <row r="357" spans="3:13">
       <c r="C357" s="6"/>
-      <c r="K357" s="6"/>
-    </row>
-    <row r="358" spans="3:11">
+      <c r="M357" s="6"/>
+    </row>
+    <row r="358" spans="3:13">
       <c r="C358" s="6"/>
-      <c r="K358" s="6"/>
-    </row>
-    <row r="359" spans="3:11">
+      <c r="M358" s="6"/>
+    </row>
+    <row r="359" spans="3:13">
       <c r="C359" s="6"/>
-      <c r="K359" s="6"/>
-    </row>
-    <row r="360" spans="3:11">
+      <c r="M359" s="6"/>
+    </row>
+    <row r="360" spans="3:13">
       <c r="C360" s="6"/>
-      <c r="K360" s="6"/>
-    </row>
-    <row r="361" spans="3:11">
+      <c r="M360" s="6"/>
+    </row>
+    <row r="361" spans="3:13">
       <c r="C361" s="6"/>
-      <c r="K361" s="6"/>
-    </row>
-    <row r="362" spans="3:11">
+      <c r="M361" s="6"/>
+    </row>
+    <row r="362" spans="3:13">
       <c r="C362" s="6"/>
-      <c r="K362" s="6"/>
-    </row>
-    <row r="363" spans="3:11">
+      <c r="M362" s="6"/>
+    </row>
+    <row r="363" spans="3:13">
       <c r="C363" s="6"/>
-      <c r="K363" s="6"/>
-    </row>
-    <row r="364" spans="3:11">
+      <c r="M363" s="6"/>
+    </row>
+    <row r="364" spans="3:13">
       <c r="C364" s="6"/>
-      <c r="K364" s="6"/>
-    </row>
-    <row r="365" spans="3:11">
+      <c r="M364" s="6"/>
+    </row>
+    <row r="365" spans="3:13">
       <c r="C365" s="6"/>
-      <c r="K365" s="6"/>
-    </row>
-    <row r="366" spans="3:11">
+      <c r="M365" s="6"/>
+    </row>
+    <row r="366" spans="3:13">
       <c r="C366" s="6"/>
-      <c r="K366" s="6"/>
-    </row>
-    <row r="367" spans="3:11">
+      <c r="M366" s="6"/>
+    </row>
+    <row r="367" spans="3:13">
       <c r="C367" s="6"/>
-      <c r="K367" s="6"/>
-    </row>
-    <row r="368" spans="3:11">
+      <c r="M367" s="6"/>
+    </row>
+    <row r="368" spans="3:13">
       <c r="C368" s="6"/>
-      <c r="K368" s="6"/>
-    </row>
-    <row r="369" spans="3:11">
+      <c r="M368" s="6"/>
+    </row>
+    <row r="369" spans="3:13">
       <c r="C369" s="6"/>
-      <c r="K369" s="6"/>
-    </row>
-    <row r="370" spans="3:11">
+      <c r="M369" s="6"/>
+    </row>
+    <row r="370" spans="3:13">
       <c r="C370" s="6"/>
-      <c r="K370" s="6"/>
-    </row>
-    <row r="371" spans="3:11">
+      <c r="M370" s="6"/>
+    </row>
+    <row r="371" spans="3:13">
       <c r="C371" s="6"/>
-      <c r="K371" s="6"/>
-    </row>
-    <row r="372" spans="3:11">
+      <c r="M371" s="6"/>
+    </row>
+    <row r="372" spans="3:13">
       <c r="C372" s="6"/>
-      <c r="K372" s="6"/>
-    </row>
-    <row r="373" spans="3:11">
+      <c r="M372" s="6"/>
+    </row>
+    <row r="373" spans="3:13">
       <c r="C373" s="6"/>
-      <c r="K373" s="6"/>
-    </row>
-    <row r="374" spans="3:11">
+      <c r="M373" s="6"/>
+    </row>
+    <row r="374" spans="3:13">
       <c r="C374" s="6"/>
-      <c r="K374" s="6"/>
-    </row>
-    <row r="375" spans="3:11">
+      <c r="M374" s="6"/>
+    </row>
+    <row r="375" spans="3:13">
       <c r="C375" s="6"/>
-      <c r="K375" s="6"/>
-    </row>
-    <row r="376" spans="3:11">
+      <c r="M375" s="6"/>
+    </row>
+    <row r="376" spans="3:13">
       <c r="C376" s="6"/>
-      <c r="K376" s="6"/>
-    </row>
-    <row r="377" spans="3:11">
+      <c r="M376" s="6"/>
+    </row>
+    <row r="377" spans="3:13">
       <c r="C377" s="6"/>
-      <c r="K377" s="6"/>
-    </row>
-    <row r="378" spans="3:11">
+      <c r="M377" s="6"/>
+    </row>
+    <row r="378" spans="3:13">
       <c r="C378" s="6"/>
-      <c r="K378" s="6"/>
-    </row>
-    <row r="379" spans="3:11">
+      <c r="M378" s="6"/>
+    </row>
+    <row r="379" spans="3:13">
       <c r="C379" s="6"/>
-      <c r="K379" s="6"/>
-    </row>
-    <row r="380" spans="3:11">
+      <c r="M379" s="6"/>
+    </row>
+    <row r="380" spans="3:13">
       <c r="C380" s="6"/>
-      <c r="K380" s="6"/>
-    </row>
-    <row r="381" spans="3:11">
+      <c r="M380" s="6"/>
+    </row>
+    <row r="381" spans="3:13">
       <c r="C381" s="6"/>
-      <c r="K381" s="6"/>
-    </row>
-    <row r="382" spans="3:11">
+      <c r="M381" s="6"/>
+    </row>
+    <row r="382" spans="3:13">
       <c r="C382" s="6"/>
-      <c r="K382" s="6"/>
-    </row>
-    <row r="383" spans="3:11">
+      <c r="M382" s="6"/>
+    </row>
+    <row r="383" spans="3:13">
       <c r="C383" s="6"/>
-      <c r="K383" s="6"/>
-    </row>
-    <row r="384" spans="3:11">
+      <c r="M383" s="6"/>
+    </row>
+    <row r="384" spans="3:13">
       <c r="C384" s="6"/>
-      <c r="K384" s="6"/>
-    </row>
-    <row r="385" spans="3:11">
+      <c r="M384" s="6"/>
+    </row>
+    <row r="385" spans="3:13">
       <c r="C385" s="6"/>
-      <c r="K385" s="6"/>
-    </row>
-    <row r="386" spans="3:11">
+      <c r="M385" s="6"/>
+    </row>
+    <row r="386" spans="3:13">
       <c r="C386" s="6"/>
-      <c r="K386" s="6"/>
-    </row>
-    <row r="387" spans="3:11">
+      <c r="M386" s="6"/>
+    </row>
+    <row r="387" spans="3:13">
       <c r="C387" s="6"/>
-      <c r="K387" s="6"/>
-    </row>
-    <row r="388" spans="3:11">
+      <c r="M387" s="6"/>
+    </row>
+    <row r="388" spans="3:13">
       <c r="C388" s="6"/>
-      <c r="K388" s="6"/>
-    </row>
-    <row r="389" spans="3:11">
+      <c r="M388" s="6"/>
+    </row>
+    <row r="389" spans="3:13">
       <c r="C389" s="6"/>
-      <c r="K389" s="6"/>
-    </row>
-    <row r="390" spans="3:11">
+      <c r="M389" s="6"/>
+    </row>
+    <row r="390" spans="3:13">
       <c r="C390" s="6"/>
-      <c r="K390" s="6"/>
-    </row>
-    <row r="391" spans="3:11">
+      <c r="M390" s="6"/>
+    </row>
+    <row r="391" spans="3:13">
       <c r="C391" s="6"/>
-      <c r="K391" s="6"/>
-    </row>
-    <row r="392" spans="3:11">
+      <c r="M391" s="6"/>
+    </row>
+    <row r="392" spans="3:13">
       <c r="C392" s="6"/>
-      <c r="K392" s="6"/>
-    </row>
-    <row r="393" spans="3:11">
+      <c r="M392" s="6"/>
+    </row>
+    <row r="393" spans="3:13">
       <c r="C393" s="6"/>
-      <c r="K393" s="6"/>
-    </row>
-    <row r="394" spans="3:11">
+      <c r="M393" s="6"/>
+    </row>
+    <row r="394" spans="3:13">
       <c r="C394" s="6"/>
-      <c r="K394" s="6"/>
-    </row>
-    <row r="395" spans="3:11">
+      <c r="M394" s="6"/>
+    </row>
+    <row r="395" spans="3:13">
       <c r="C395" s="6"/>
-      <c r="K395" s="6"/>
-    </row>
-    <row r="396" spans="3:11">
+      <c r="M395" s="6"/>
+    </row>
+    <row r="396" spans="3:13">
       <c r="C396" s="6"/>
-      <c r="K396" s="6"/>
-    </row>
-    <row r="397" spans="3:11">
+      <c r="M396" s="6"/>
+    </row>
+    <row r="397" spans="3:13">
       <c r="C397" s="6"/>
-      <c r="K397" s="6"/>
-    </row>
-    <row r="398" spans="3:11">
+      <c r="M397" s="6"/>
+    </row>
+    <row r="398" spans="3:13">
       <c r="C398" s="6"/>
-      <c r="K398" s="6"/>
-    </row>
-    <row r="399" spans="3:11">
+      <c r="M398" s="6"/>
+    </row>
+    <row r="399" spans="3:13">
       <c r="C399" s="6"/>
-      <c r="K399" s="6"/>
-    </row>
-    <row r="400" spans="3:11">
+      <c r="M399" s="6"/>
+    </row>
+    <row r="400" spans="3:13">
       <c r="C400" s="6"/>
-      <c r="K400" s="6"/>
-    </row>
-    <row r="401" spans="3:11">
+      <c r="M400" s="6"/>
+    </row>
+    <row r="401" spans="3:13">
       <c r="C401" s="6"/>
-      <c r="K401" s="6"/>
-    </row>
-    <row r="437" spans="3:11">
+      <c r="M401" s="6"/>
+    </row>
+    <row r="437" spans="3:13">
       <c r="C437" s="6"/>
-      <c r="K437" s="6"/>
-    </row>
-    <row r="438" spans="3:11">
+      <c r="M437" s="6"/>
+    </row>
+    <row r="438" spans="3:13">
       <c r="C438" s="7"/>
-      <c r="K438" s="7"/>
-    </row>
-    <row r="440" spans="3:11">
+      <c r="M438" s="7"/>
+    </row>
+    <row r="440" spans="3:13">
       <c r="C440" s="6"/>
-      <c r="K440" s="6"/>
-    </row>
-    <row r="492" spans="3:11">
+      <c r="M440" s="6"/>
+    </row>
+    <row r="492" spans="3:13">
       <c r="C492" s="8"/>
-      <c r="K492" s="8"/>
-    </row>
-    <row r="493" spans="3:11">
+      <c r="M492" s="8"/>
+    </row>
+    <row r="493" spans="3:13">
       <c r="C493" s="7"/>
-      <c r="K493" s="7"/>
-    </row>
-    <row r="494" spans="3:11">
+      <c r="M493" s="7"/>
+    </row>
+    <row r="494" spans="3:13">
       <c r="C494" s="8"/>
-      <c r="K494" s="8"/>
-    </row>
-    <row r="495" spans="3:11">
+      <c r="M494" s="8"/>
+    </row>
+    <row r="495" spans="3:13">
       <c r="C495" s="6"/>
-      <c r="K495" s="6"/>
-    </row>
-    <row r="704" spans="3:11">
+      <c r="M495" s="6"/>
+    </row>
+    <row r="704" spans="3:13">
       <c r="C704" s="6"/>
-      <c r="K704" s="6"/>
-    </row>
-    <row r="742" spans="3:11">
+      <c r="M704" s="6"/>
+    </row>
+    <row r="742" spans="3:13">
       <c r="C742" s="6"/>
-      <c r="K742" s="6"/>
-    </row>
-    <row r="743" spans="3:11">
+      <c r="M742" s="6"/>
+    </row>
+    <row r="743" spans="3:13">
       <c r="C743" s="7"/>
-      <c r="K743" s="7"/>
-    </row>
-    <row r="744" spans="3:11">
+      <c r="M743" s="7"/>
+    </row>
+    <row r="744" spans="3:13">
       <c r="C744" s="7"/>
-      <c r="K744" s="7"/>
-    </row>
-    <row r="745" spans="3:11">
+      <c r="M744" s="7"/>
+    </row>
+    <row r="745" spans="3:13">
       <c r="C745" s="7"/>
-      <c r="K745" s="7"/>
-    </row>
-    <row r="748" spans="3:11">
+      <c r="M745" s="7"/>
+    </row>
+    <row r="748" spans="3:13">
       <c r="C748" s="6"/>
-      <c r="K748" s="6"/>
-    </row>
-    <row r="750" spans="3:11">
+      <c r="M748" s="6"/>
+    </row>
+    <row r="750" spans="3:13">
       <c r="C750" s="6"/>
-      <c r="K750" s="6"/>
-    </row>
-    <row r="751" spans="3:11">
+      <c r="M750" s="6"/>
+    </row>
+    <row r="751" spans="3:13">
       <c r="C751" s="6"/>
-      <c r="K751" s="6"/>
-    </row>
-    <row r="813" spans="3:11">
+      <c r="M751" s="6"/>
+    </row>
+    <row r="813" spans="3:13">
       <c r="C813" s="6"/>
-      <c r="K813" s="6"/>
-    </row>
-    <row r="846" spans="3:11">
+      <c r="M813" s="6"/>
+    </row>
+    <row r="846" spans="3:13">
       <c r="C846" s="6"/>
-      <c r="K846" s="6"/>
+      <c r="M846" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
